--- a/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
+++ b/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\io-model\BPEaCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E356E6F-8817-4F83-90DF-C171F2A3C8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F3052A-EF40-4B9A-83AF-488974C30BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="1140" windowWidth="14505" windowHeight="14055" xr2:uid="{1123C965-C626-47FF-B97A-098977CD3CC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{1123C965-C626-47FF-B97A-098977CD3CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="BPEaCP-employedpop" sheetId="8" r:id="rId10"/>
     <sheet name="BPEaCP-employeecomp" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="141">
   <si>
     <t>Sources:</t>
   </si>
@@ -399,9 +399,6 @@
     <t>GDP</t>
   </si>
   <si>
-    <t>Annual change in GDP</t>
-  </si>
-  <si>
     <t>2012 dollars per 2010 dollar</t>
   </si>
   <si>
@@ -462,7 +459,13 @@
     <t>2015 to 2012 dollars</t>
   </si>
   <si>
-    <t>We start with 2015 Total Employee Compensation and scale this value by forecasted real GDP growth</t>
+    <t>GDP/capita</t>
+  </si>
+  <si>
+    <t>Annual change in GDP/capita</t>
+  </si>
+  <si>
+    <t>We start with 2015 Total Employee Compensation and scale this value by forecasted real GDP growth/capita</t>
   </si>
 </sst>
 </file>
@@ -735,7 +738,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -795,6 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1393,7 +1397,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EE Comp Projection'!$A$14</c:f>
+              <c:f>'EE Comp Projection'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1491,66 +1495,66 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'EE Comp Projection'!$B$14:$T$14</c:f>
+              <c:f>'EE Comp Projection'!$B$17:$T$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>648932705513.74646</c:v>
+                  <c:v>641400297495.39124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>707918846361.57983</c:v>
+                  <c:v>691713633583.62476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>818344383532.20264</c:v>
+                  <c:v>790649865085.97888</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>836980290061.51233</c:v>
+                  <c:v>799773367042.70142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>886948415451.31848</c:v>
+                  <c:v>838426675251.40833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>955425934734.17578</c:v>
+                  <c:v>893716391568.27246</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1025215907034.9503</c:v>
+                  <c:v>949236651803.93542</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1096179983615.0687</c:v>
+                  <c:v>1004879967760.811</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1168400674225.9873</c:v>
+                  <c:v>1060756822375.5968</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1242245005003.4944</c:v>
+                  <c:v>1117232824968.7021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1318060085936.4753</c:v>
+                  <c:v>1174645424660.4446</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1395943600983.551</c:v>
+                  <c:v>1233100663217.8279</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1476054879319.9473</c:v>
+                  <c:v>1292758282652.658</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1558453669386.3738</c:v>
+                  <c:v>1353697062165.1047</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1643170319597.1592</c:v>
+                  <c:v>1415974023742.0168</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1730209571892.0427</c:v>
+                  <c:v>1479623218445.8418</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1819567632719.2329</c:v>
+                  <c:v>1544667292592.5708</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1911171476206.7512</c:v>
+                  <c:v>1611073633592.0564</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2005029637846.1277</c:v>
+                  <c:v>1678889150994.0872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,13 +2949,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>638174</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>54769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3279,7 +3283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D524350-AB87-478F-BE2E-F548EFE9AD6A}">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -3378,12 +3382,12 @@
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3393,12 +3397,12 @@
     </row>
     <row r="25" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3411,7 +3415,7 @@
     </row>
     <row r="29" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3421,12 +3425,12 @@
     </row>
     <row r="31" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -3434,7 +3438,7 @@
     </row>
     <row r="34" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3449,17 +3453,17 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3474,7 +3478,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,12 +3538,12 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3547,7 +3551,7 @@
         <v>0.9686815713640794</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3555,7 +3559,7 @@
         <v>1.0529130131709286</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3564,7 +3568,7 @@
         <v>1000000</v>
       </c>
       <c r="B63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3958,132 +3962,132 @@
         <v>78</v>
       </c>
       <c r="B2" s="10">
-        <f>'EE Comp Projection'!F14</f>
-        <v>886948415451.31848</v>
+        <f>'EE Comp Projection'!F17</f>
+        <v>838426675251.40833</v>
       </c>
       <c r="C2" s="10">
-        <f>'EE Comp Projection'!G14</f>
-        <v>955425934734.17578</v>
+        <f>'EE Comp Projection'!G17</f>
+        <v>893716391568.27246</v>
       </c>
       <c r="D2" s="10">
-        <f>'EE Comp Projection'!H14</f>
-        <v>1025215907034.9503</v>
+        <f>'EE Comp Projection'!H17</f>
+        <v>949236651803.93542</v>
       </c>
       <c r="E2" s="10">
-        <f>'EE Comp Projection'!I14</f>
-        <v>1096179983615.0687</v>
+        <f>'EE Comp Projection'!I17</f>
+        <v>1004879967760.811</v>
       </c>
       <c r="F2" s="10">
-        <f>'EE Comp Projection'!J14</f>
-        <v>1168400674225.9873</v>
+        <f>'EE Comp Projection'!J17</f>
+        <v>1060756822375.5968</v>
       </c>
       <c r="G2" s="10">
-        <f>'EE Comp Projection'!K14</f>
-        <v>1242245005003.4944</v>
+        <f>'EE Comp Projection'!K17</f>
+        <v>1117232824968.7021</v>
       </c>
       <c r="H2" s="10">
-        <f>'EE Comp Projection'!L14</f>
-        <v>1318060085936.4753</v>
+        <f>'EE Comp Projection'!L17</f>
+        <v>1174645424660.4446</v>
       </c>
       <c r="I2" s="10">
-        <f>'EE Comp Projection'!M14</f>
-        <v>1395943600983.551</v>
+        <f>'EE Comp Projection'!M17</f>
+        <v>1233100663217.8279</v>
       </c>
       <c r="J2" s="10">
-        <f>'EE Comp Projection'!N14</f>
-        <v>1476054879319.9473</v>
+        <f>'EE Comp Projection'!N17</f>
+        <v>1292758282652.658</v>
       </c>
       <c r="K2" s="10">
-        <f>'EE Comp Projection'!O14</f>
-        <v>1558453669386.3738</v>
+        <f>'EE Comp Projection'!O17</f>
+        <v>1353697062165.1047</v>
       </c>
       <c r="L2" s="10">
-        <f>'EE Comp Projection'!P14</f>
-        <v>1643170319597.1592</v>
+        <f>'EE Comp Projection'!P17</f>
+        <v>1415974023742.0168</v>
       </c>
       <c r="M2" s="10">
-        <f>'EE Comp Projection'!Q14</f>
-        <v>1730209571892.0427</v>
+        <f>'EE Comp Projection'!Q17</f>
+        <v>1479623218445.8418</v>
       </c>
       <c r="N2" s="10">
-        <f>'EE Comp Projection'!R14</f>
-        <v>1819567632719.2329</v>
+        <f>'EE Comp Projection'!R17</f>
+        <v>1544667292592.5708</v>
       </c>
       <c r="O2" s="10">
-        <f>'EE Comp Projection'!S14</f>
-        <v>1911171476206.7512</v>
+        <f>'EE Comp Projection'!S17</f>
+        <v>1611073633592.0564</v>
       </c>
       <c r="P2" s="10">
-        <f>'EE Comp Projection'!T14</f>
-        <v>2005029637846.1277</v>
+        <f>'EE Comp Projection'!T17</f>
+        <v>1678889150994.0872</v>
       </c>
       <c r="Q2" s="10">
-        <f>'EE Comp Projection'!U14</f>
-        <v>2101112717610.9817</v>
+        <f>'EE Comp Projection'!U17</f>
+        <v>1748138532772.3655</v>
       </c>
       <c r="R2" s="10">
-        <f>'EE Comp Projection'!V14</f>
-        <v>2199362863836.4985</v>
+        <f>'EE Comp Projection'!V17</f>
+        <v>1818816724245.8384</v>
       </c>
       <c r="S2" s="10">
-        <f>'EE Comp Projection'!W14</f>
-        <v>2299726966797.603</v>
+        <f>'EE Comp Projection'!W17</f>
+        <v>1890923453403.4509</v>
       </c>
       <c r="T2" s="10">
-        <f>'EE Comp Projection'!X14</f>
-        <v>2402214510373.7729</v>
+        <f>'EE Comp Projection'!X17</f>
+        <v>1964499866591.8948</v>
       </c>
       <c r="U2" s="10">
-        <f>'EE Comp Projection'!Y14</f>
-        <v>2506849204263.7026</v>
+        <f>'EE Comp Projection'!Y17</f>
+        <v>2039581748138.4417</v>
       </c>
       <c r="V2" s="10">
-        <f>'EE Comp Projection'!Z14</f>
-        <v>2613631996855.3398</v>
+        <f>'EE Comp Projection'!Z17</f>
+        <v>2116175702311.8501</v>
       </c>
       <c r="W2" s="10">
-        <f>'EE Comp Projection'!AA14</f>
-        <v>2722543920389.729</v>
+        <f>'EE Comp Projection'!AA17</f>
+        <v>2194272644023.7856</v>
       </c>
       <c r="X2" s="10">
-        <f>'EE Comp Projection'!AB14</f>
-        <v>2833567903883.8105</v>
+        <f>'EE Comp Projection'!AB17</f>
+        <v>2273889902513.2534</v>
       </c>
       <c r="Y2" s="10">
-        <f>'EE Comp Projection'!AC14</f>
-        <v>2946761799002.3984</v>
+        <f>'EE Comp Projection'!AC17</f>
+        <v>2355105942434.8384</v>
       </c>
       <c r="Z2" s="10">
-        <f>'EE Comp Projection'!AD14</f>
-        <v>3062179663858.5156</v>
+        <f>'EE Comp Projection'!AD17</f>
+        <v>2437987535701.0747</v>
       </c>
       <c r="AA2" s="10">
-        <f>'EE Comp Projection'!AE14</f>
-        <v>3179828137167.7964</v>
+        <f>'EE Comp Projection'!AE17</f>
+        <v>2522557050588.6396</v>
       </c>
       <c r="AB2" s="10">
-        <f>'EE Comp Projection'!AF14</f>
-        <v>3299662644696.6958</v>
+        <f>'EE Comp Projection'!AF17</f>
+        <v>2608805142148.4937</v>
       </c>
       <c r="AC2" s="10">
-        <f>'EE Comp Projection'!AG14</f>
-        <v>3421631973496.0337</v>
+        <f>'EE Comp Projection'!AG17</f>
+        <v>2696716404456.8154</v>
       </c>
       <c r="AD2" s="10">
-        <f>'EE Comp Projection'!AH14</f>
-        <v>3545771213919.8784</v>
+        <f>'EE Comp Projection'!AH17</f>
+        <v>2786355670962.187</v>
       </c>
       <c r="AE2" s="10">
-        <f>'EE Comp Projection'!AI14</f>
-        <v>3672098385339.2373</v>
+        <f>'EE Comp Projection'!AI17</f>
+        <v>2877768559033.8711</v>
       </c>
       <c r="AF2" s="10">
-        <f>'EE Comp Projection'!AJ14</f>
-        <v>3800571758684.4077</v>
+        <f>'EE Comp Projection'!AJ17</f>
+        <v>2970967090346.1777</v>
       </c>
       <c r="AG2" s="10">
-        <f>'EE Comp Projection'!AK14</f>
-        <v>3931104082264.1948</v>
+        <f>'EE Comp Projection'!AK17</f>
+        <v>3065921038445.8809</v>
       </c>
       <c r="AH2" s="10"/>
     </row>
@@ -4453,7 +4457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F692D72D-FB12-4EFD-BBFA-B9A83A93CCFD}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8651,186 +8655,186 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="47"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="47"/>
-      <c r="AL3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="49"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="44"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42"/>
-      <c r="AL5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="44"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="42"/>
-      <c r="AK6" s="42"/>
-      <c r="AL6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="44"/>
     </row>
     <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="19" t="s">
         <v>33</v>
       </c>
@@ -9451,10 +9455,10 @@
         <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -10376,10 +10380,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:BA19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10408,7 +10412,7 @@
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -10574,7 +10578,7 @@
         <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="10">
         <f t="array" ref="C4:BA4">TRANSPOSE(BGDP_calc!$C$45:$C$95)</f>
@@ -10733,316 +10737,602 @@
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27">
-        <f t="shared" ref="D5:T5" si="0">(D4-C4)/C4</f>
-        <v>3.6392531003638907E-2</v>
-      </c>
-      <c r="E5" s="27">
+        <v>19</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="array" ref="C5:BA5">TRANSPOSE('India Population Data'!B5:B55)</f>
+        <v>1053050912</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1071477855</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1089807112</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1108027848</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1126135777</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1144118674</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1161977719</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1179681239</v>
+      </c>
+      <c r="K5" s="10">
+        <v>1197146906</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1214270132</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1230980691</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1247236029</v>
+      </c>
+      <c r="O5" s="10">
+        <v>1263065852</v>
+      </c>
+      <c r="P5" s="10">
+        <v>1278562207</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>1293859294</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1309053980</v>
+      </c>
+      <c r="S5" s="10">
+        <v>1324171354</v>
+      </c>
+      <c r="T5" s="10">
+        <v>1339180000</v>
+      </c>
+      <c r="U5" s="10">
+        <v>1354052000</v>
+      </c>
+      <c r="V5" s="10">
+        <v>1368738000</v>
+      </c>
+      <c r="W5">
+        <v>1383198000</v>
+      </c>
+      <c r="X5">
+        <v>1397423000</v>
+      </c>
+      <c r="Y5">
+        <v>1411415000</v>
+      </c>
+      <c r="Z5">
+        <v>1425158000</v>
+      </c>
+      <c r="AA5">
+        <v>1438635000</v>
+      </c>
+      <c r="AB5">
+        <v>1451829000</v>
+      </c>
+      <c r="AC5">
+        <v>1464726000</v>
+      </c>
+      <c r="AD5">
+        <v>1477312000</v>
+      </c>
+      <c r="AE5">
+        <v>1489565000</v>
+      </c>
+      <c r="AF5">
+        <v>1501462000</v>
+      </c>
+      <c r="AG5">
+        <v>1512985000</v>
+      </c>
+      <c r="AH5">
+        <v>1524124000</v>
+      </c>
+      <c r="AI5">
+        <v>1534869000</v>
+      </c>
+      <c r="AJ5">
+        <v>1545204000</v>
+      </c>
+      <c r="AK5">
+        <v>1555108000</v>
+      </c>
+      <c r="AL5">
+        <v>1564570000</v>
+      </c>
+      <c r="AM5">
+        <v>1573582000</v>
+      </c>
+      <c r="AN5">
+        <v>1582147000</v>
+      </c>
+      <c r="AO5">
+        <v>1590282000</v>
+      </c>
+      <c r="AP5">
+        <v>1598011000</v>
+      </c>
+      <c r="AQ5">
+        <v>1605356000</v>
+      </c>
+      <c r="AR5">
+        <v>1612320000</v>
+      </c>
+      <c r="AS5">
+        <v>1618906000</v>
+      </c>
+      <c r="AT5">
+        <v>1625123000</v>
+      </c>
+      <c r="AU5">
+        <v>1630984000</v>
+      </c>
+      <c r="AV5">
+        <v>1636496000</v>
+      </c>
+      <c r="AW5">
+        <v>1641667000</v>
+      </c>
+      <c r="AX5">
+        <v>1646498000</v>
+      </c>
+      <c r="AY5">
+        <v>1650994000</v>
+      </c>
+      <c r="AZ5">
+        <v>1655153000</v>
+      </c>
+      <c r="BA5">
+        <v>1658978000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="39">
+        <f>C4/C5</f>
+        <v>399.45298392758474</v>
+      </c>
+      <c r="D6" s="39">
+        <f t="shared" ref="D6:BA6" si="0">D4/D5</f>
+        <v>406.87041619880273</v>
+      </c>
+      <c r="E6" s="39">
         <f t="shared" si="0"/>
-        <v>6.0763168846529964E-2</v>
-      </c>
-      <c r="F5" s="27">
+        <v>424.33426947059542</v>
+      </c>
+      <c r="F6" s="39">
         <f t="shared" si="0"/>
-        <v>0.18014080486267542</v>
-      </c>
-      <c r="G5" s="27">
+        <v>492.53930821776783</v>
+      </c>
+      <c r="G6" s="39">
         <f t="shared" si="0"/>
-        <v>0.16693985298725042</v>
-      </c>
-      <c r="H5" s="27">
+        <v>565.52171747450063</v>
+      </c>
+      <c r="H6" s="39">
         <f t="shared" si="0"/>
-        <v>0.15685442243206574</v>
-      </c>
-      <c r="I5" s="27">
+        <v>643.94337689669408</v>
+      </c>
+      <c r="I6" s="39">
         <f t="shared" si="0"/>
-        <v>0.14612503978016722</v>
-      </c>
-      <c r="J5" s="27">
+        <v>726.69631032338248</v>
+      </c>
+      <c r="J6" s="39">
         <f t="shared" si="0"/>
-        <v>0.29404163256169646</v>
-      </c>
-      <c r="K5" s="27">
+        <v>926.26303317127349</v>
+      </c>
+      <c r="K6" s="39">
         <f t="shared" si="0"/>
-        <v>-1.4662069319678563E-2</v>
-      </c>
-      <c r="L5" s="27">
+        <v>899.36660704060921</v>
+      </c>
+      <c r="L6" s="39">
         <f t="shared" si="0"/>
-        <v>0.11926895285261774</v>
-      </c>
-      <c r="M5" s="27">
+        <v>992.43792128065422</v>
+      </c>
+      <c r="M6" s="39">
         <f t="shared" si="0"/>
-        <v>0.24870114367774579</v>
-      </c>
-      <c r="N5" s="27">
+        <v>1222.4354389021994</v>
+      </c>
+      <c r="N6" s="39">
         <f t="shared" si="0"/>
-        <v>8.7988613267859783E-2</v>
-      </c>
-      <c r="O5" s="27">
+        <v>1312.661884035901</v>
+      </c>
+      <c r="O6" s="39">
         <f t="shared" si="0"/>
-        <v>2.516361463081936E-3</v>
-      </c>
-      <c r="P5" s="27">
+        <v>1299.4722151889471</v>
+      </c>
+      <c r="P6" s="39">
         <f t="shared" si="0"/>
-        <v>1.5913580534270909E-2</v>
-      </c>
-      <c r="Q5" s="27">
+        <v>1304.151048169223</v>
+      </c>
+      <c r="Q6" s="39">
         <f t="shared" si="0"/>
-        <v>9.8240508260339601E-2</v>
-      </c>
-      <c r="R5" s="27">
+        <v>1415.3379979782824</v>
+      </c>
+      <c r="R6" s="39">
         <f t="shared" si="0"/>
-        <v>3.1611742002807461E-2</v>
-      </c>
-      <c r="S5" s="27">
+        <v>1443.1316034797367</v>
+      </c>
+      <c r="S6" s="39">
         <f t="shared" si="0"/>
-        <v>9.0897161364575277E-2</v>
-      </c>
-      <c r="T5" s="27">
+        <v>1556.3351140938692</v>
+      </c>
+      <c r="T6" s="39">
         <f t="shared" si="0"/>
-        <v>0.15598615256277742</v>
-      </c>
-      <c r="U5" s="27">
-        <f t="shared" ref="U5" si="1">(U4-T4)/T4</f>
-        <v>2.2772694362331928E-2</v>
-      </c>
-      <c r="V5" s="27">
-        <f t="shared" ref="V5" si="2">(V4-U4)/U4</f>
-        <v>5.970048038542683E-2</v>
-      </c>
-      <c r="W5" s="27">
-        <f t="shared" ref="W5" si="3">(W4-V4)/V4</f>
-        <v>7.7205751867782474E-2</v>
-      </c>
-      <c r="X5" s="27">
-        <f t="shared" ref="X5" si="4">(X4-W4)/W4</f>
-        <v>7.3045926181804846E-2</v>
-      </c>
-      <c r="Y5" s="27">
-        <f t="shared" ref="Y5" si="5">(Y4-X4)/X4</f>
-        <v>6.9218665154499273E-2</v>
-      </c>
-      <c r="Z5" s="27">
-        <f t="shared" ref="Z5" si="6">(Z4-Y4)/Y4</f>
-        <v>6.5883971328087487E-2</v>
-      </c>
-      <c r="AA5" s="27">
-        <f t="shared" ref="AA5" si="7">(AA4-Z4)/Z4</f>
-        <v>6.3201205208500727E-2</v>
-      </c>
-      <c r="AB5" s="27">
-        <f t="shared" ref="AB5" si="8">(AB4-AA4)/AA4</f>
-        <v>6.1030698958429545E-2</v>
-      </c>
-      <c r="AC5" s="27">
-        <f t="shared" ref="AC5" si="9">(AC4-AB4)/AB4</f>
-        <v>5.9089502730628407E-2</v>
-      </c>
-      <c r="AD5" s="27">
-        <f t="shared" ref="AD5" si="10">(AD4-AC4)/AC4</f>
-        <v>5.7388621058867682E-2</v>
-      </c>
-      <c r="AE5" s="27">
-        <f t="shared" ref="AE5" si="11">(AE4-AD4)/AD4</f>
-        <v>5.5823662941576806E-2</v>
-      </c>
-      <c r="AF5" s="27">
-        <f t="shared" ref="AF5" si="12">(AF4-AE4)/AE4</f>
-        <v>5.4359428114498801E-2</v>
-      </c>
-      <c r="AG5" s="27">
-        <f t="shared" ref="AG5" si="13">(AG4-AF4)/AF4</f>
-        <v>5.2970316744901998E-2</v>
-      </c>
-      <c r="AH5" s="27">
-        <f t="shared" ref="AH5" si="14">(AH4-AG4)/AG4</f>
-        <v>5.1645801918361801E-2</v>
-      </c>
-      <c r="AI5" s="27">
-        <f t="shared" ref="AI5" si="15">(AI4-AH4)/AH4</f>
-        <v>5.0343742018878312E-2</v>
-      </c>
-      <c r="AJ5" s="27">
-        <f t="shared" ref="AJ5" si="16">(AJ4-AI4)/AI4</f>
-        <v>4.9110277548545238E-2</v>
-      </c>
-      <c r="AK5" s="27">
-        <f t="shared" ref="AK5" si="17">(AK4-AJ4)/AJ4</f>
-        <v>4.7921027176471016E-2</v>
-      </c>
-      <c r="AL5" s="27">
-        <f t="shared" ref="AL5" si="18">(AL4-AK4)/AK4</f>
-        <v>4.6761006871268496E-2</v>
-      </c>
-      <c r="AM5" s="27">
-        <f t="shared" ref="AM5" si="19">(AM4-AL4)/AL4</f>
-        <v>4.5633262528600005E-2</v>
-      </c>
-      <c r="AN5" s="27">
-        <f t="shared" ref="AN5" si="20">(AN4-AM4)/AM4</f>
-        <v>4.4565091880835336E-2</v>
-      </c>
-      <c r="AO5" s="27">
-        <f t="shared" ref="AO5" si="21">(AO4-AN4)/AN4</f>
-        <v>4.355759797390004E-2</v>
-      </c>
-      <c r="AP5" s="27">
-        <f t="shared" ref="AP5" si="22">(AP4-AO4)/AO4</f>
-        <v>4.2596416413886819E-2</v>
-      </c>
-      <c r="AQ5" s="27">
-        <f t="shared" ref="AQ5" si="23">(AQ4-AP4)/AP4</f>
-        <v>4.1670718626581421E-2</v>
-      </c>
-      <c r="AR5" s="27">
-        <f t="shared" ref="AR5" si="24">(AR4-AQ4)/AQ4</f>
-        <v>4.077950135628617E-2</v>
-      </c>
-      <c r="AS5" s="27">
-        <f t="shared" ref="AS5" si="25">(AS4-AR4)/AR4</f>
-        <v>3.9947479276370788E-2</v>
-      </c>
-      <c r="AT5" s="27">
-        <f t="shared" ref="AT5" si="26">(AT4-AS4)/AS4</f>
-        <v>3.9167694143174753E-2</v>
-      </c>
-      <c r="AU5" s="27">
-        <f t="shared" ref="AU5" si="27">(AU4-AT4)/AT4</f>
-        <v>3.8419846718280783E-2</v>
-      </c>
-      <c r="AV5" s="27">
-        <f t="shared" ref="AV5" si="28">(AV4-AU4)/AU4</f>
-        <v>3.7685844127297093E-2</v>
-      </c>
-      <c r="AW5" s="27">
-        <f t="shared" ref="AW5" si="29">(AW4-AV4)/AV4</f>
-        <v>3.6964181473330401E-2</v>
-      </c>
-      <c r="AX5" s="27">
-        <f t="shared" ref="AX5" si="30">(AX4-AW4)/AW4</f>
-        <v>3.6280710896270475E-2</v>
-      </c>
-      <c r="AY5" s="27">
-        <f t="shared" ref="AY5" si="31">(AY4-AX4)/AX4</f>
-        <v>3.562755851912474E-2</v>
-      </c>
-      <c r="AZ5" s="27">
-        <f>(AZ4-AY4)/AY4</f>
-        <v>3.4986364705830594E-2</v>
-      </c>
-      <c r="BA5" s="27">
-        <f t="shared" ref="BA5" si="32">(BA4-AZ4)/AZ4</f>
-        <v>3.4345443756328808E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
+        <v>1778.9386940544173</v>
+      </c>
+      <c r="U6" s="39">
+        <f t="shared" si="0"/>
+        <v>1799.466302257234</v>
+      </c>
+      <c r="V6" s="39">
+        <f t="shared" si="0"/>
+        <v>1886.435096741506</v>
+      </c>
+      <c r="W6" s="39">
+        <f t="shared" si="0"/>
+        <v>2010.8353149451298</v>
+      </c>
+      <c r="X6" s="39">
+        <f t="shared" si="0"/>
+        <v>2135.7542501130392</v>
+      </c>
+      <c r="Y6" s="39">
+        <f t="shared" si="0"/>
+        <v>2260.9500569957954</v>
+      </c>
+      <c r="Z6" s="39">
+        <f t="shared" si="0"/>
+        <v>2386.6713189168181</v>
+      </c>
+      <c r="AA6" s="39">
+        <f t="shared" si="0"/>
+        <v>2513.7406459791423</v>
+      </c>
+      <c r="AB6" s="39">
+        <f t="shared" si="0"/>
+        <v>2642.9172886726697</v>
+      </c>
+      <c r="AC6" s="39">
+        <f t="shared" si="0"/>
+        <v>2774.4398378210249</v>
+      </c>
+      <c r="AD6" s="39">
+        <f t="shared" si="0"/>
+        <v>2908.6677082023743</v>
+      </c>
+      <c r="AE6" s="39">
+        <f t="shared" si="0"/>
+        <v>3045.7781506753563</v>
+      </c>
+      <c r="AF6" s="39">
+        <f t="shared" si="0"/>
+        <v>3185.8994630153788</v>
+      </c>
+      <c r="AG6" s="39">
+        <f t="shared" si="0"/>
+        <v>3329.1082591007671</v>
+      </c>
+      <c r="AH6" s="39">
+        <f t="shared" si="0"/>
+        <v>3475.4554924693302</v>
+      </c>
+      <c r="AI6" s="39">
+        <f t="shared" si="0"/>
+        <v>3624.8677857626594</v>
+      </c>
+      <c r="AJ6" s="39">
+        <f t="shared" si="0"/>
+        <v>3777.4506840733729</v>
+      </c>
+      <c r="AK6" s="39">
+        <f t="shared" si="0"/>
+        <v>3933.2597346084408</v>
+      </c>
+      <c r="AL6" s="39">
+        <f t="shared" si="0"/>
+        <v>4092.2835644857473</v>
+      </c>
+      <c r="AM6" s="39">
+        <f t="shared" si="0"/>
+        <v>4254.5215616885043</v>
+      </c>
+      <c r="AN6" s="39">
+        <f t="shared" si="0"/>
+        <v>4420.0663042736751</v>
+      </c>
+      <c r="AO6" s="39">
+        <f t="shared" si="0"/>
+        <v>4588.9983059139186</v>
+      </c>
+      <c r="AP6" s="39">
+        <f t="shared" si="0"/>
+        <v>4761.3324260176259</v>
+      </c>
+      <c r="AQ6" s="39">
+        <f t="shared" si="0"/>
+        <v>4937.0482234061028</v>
+      </c>
+      <c r="AR6" s="39">
+        <f t="shared" si="0"/>
+        <v>5116.1846883519929</v>
+      </c>
+      <c r="AS6" s="39">
+        <f t="shared" si="0"/>
+        <v>5298.9183639957182</v>
+      </c>
+      <c r="AT6" s="39">
+        <f t="shared" si="0"/>
+        <v>5485.3994851556572</v>
+      </c>
+      <c r="AU6" s="39">
+        <f t="shared" si="0"/>
+        <v>5675.6783797894277</v>
+      </c>
+      <c r="AV6" s="39">
+        <f t="shared" si="0"/>
+        <v>5869.7340220394744</v>
+      </c>
+      <c r="AW6" s="39">
+        <f t="shared" si="0"/>
+        <v>6067.5317490351463</v>
+      </c>
+      <c r="AX6" s="39">
+        <f t="shared" si="0"/>
+        <v>6269.217434108552</v>
+      </c>
+      <c r="AY6" s="39">
+        <f t="shared" si="0"/>
+        <v>6474.8937149845387</v>
+      </c>
+      <c r="AZ6" s="39">
+        <f t="shared" si="0"/>
+        <v>6684.5876400729539</v>
+      </c>
+      <c r="BA6" s="39">
+        <f t="shared" si="0"/>
+        <v>6898.2312007525315</v>
+      </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
+      <c r="A7" s="1"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <f>SUM('OECD VAL'!C9:AL9)*10^6</f>
-        <v>649385143000.00012</v>
-      </c>
-      <c r="B8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
+      <c r="A8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27">
+        <f>(D6-C6)/C6</f>
+        <v>1.8568974496790007E-2</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" ref="E8:BA8" si="1">(E6-D6)/D6</f>
+        <v>4.2922396361350583E-2</v>
+      </c>
+      <c r="F8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.16073422217881633</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.14817580655809279</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.13867134894908695</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.12850964292154557</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.27462190190436375</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="1"/>
+        <v>-2.9037568344467132E-2</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.10348540129402709</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.23175002958850416</v>
+      </c>
+      <c r="N8" s="27">
+        <f t="shared" si="1"/>
+        <v>7.3808760988415836E-2</v>
+      </c>
+      <c r="O8" s="27">
+        <f t="shared" si="1"/>
+        <v>-1.0048032175963775E-2</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.6005640794679401E-3</v>
+      </c>
+      <c r="Q8" s="27">
+        <f t="shared" si="1"/>
+        <v>8.5256190197557563E-2</v>
+      </c>
+      <c r="R8" s="27">
+        <f t="shared" si="1"/>
+        <v>1.9637433278238584E-2</v>
+      </c>
+      <c r="S8" s="27">
+        <f t="shared" si="1"/>
+        <v>7.8442957205823532E-2</v>
+      </c>
+      <c r="T8" s="27">
+        <f t="shared" si="1"/>
+        <v>0.14303062235420461</v>
+      </c>
+      <c r="U8" s="27">
+        <f t="shared" si="1"/>
+        <v>1.1539244309781033E-2</v>
+      </c>
+      <c r="V8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.8330326817000731E-2</v>
+      </c>
+      <c r="W8" s="27">
+        <f t="shared" si="1"/>
+        <v>6.5944605472249701E-2</v>
+      </c>
+      <c r="X8" s="27">
+        <f t="shared" si="1"/>
+        <v>6.2122906952883986E-2</v>
+      </c>
+      <c r="Y8" s="27">
+        <f t="shared" si="1"/>
+        <v>5.8619013342068704E-2</v>
+      </c>
+      <c r="Z8" s="27">
+        <f t="shared" si="1"/>
+        <v>5.5605501559850015E-2</v>
+      </c>
+      <c r="AA8" s="27">
+        <f t="shared" si="1"/>
+        <v>5.3241234373233318E-2</v>
+      </c>
+      <c r="AB8" s="27">
+        <f t="shared" si="1"/>
+        <v>5.1388214174024699E-2</v>
+      </c>
+      <c r="AC8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.9764156340438744E-2</v>
+      </c>
+      <c r="AD8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.8380169773934854E-2</v>
+      </c>
+      <c r="AE8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.7138572098261257E-2</v>
+      </c>
+      <c r="AF8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.6005094727254746E-2</v>
+      </c>
+      <c r="AG8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.4950820874254616E-2</v>
+      </c>
+      <c r="AH8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.3959890150311098E-2</v>
+      </c>
+      <c r="AI8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.2990708301998977E-2</v>
+      </c>
+      <c r="AJ8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.2093369283704954E-2</v>
+      </c>
+      <c r="AK8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.1247143527775421E-2</v>
+      </c>
+      <c r="AL8" s="27">
+        <f t="shared" si="1"/>
+        <v>4.0430543774688577E-2</v>
+      </c>
+      <c r="AM8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.9644857118581539E-2</v>
+      </c>
+      <c r="AN8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.8910307583320959E-2</v>
+      </c>
+      <c r="AO8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.8219336546355981E-2</v>
+      </c>
+      <c r="AP8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.7553755441926739E-2</v>
+      </c>
+      <c r="AQ8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.6904753053641624E-2</v>
+      </c>
+      <c r="AR8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.6284122990053083E-2</v>
+      </c>
+      <c r="AS8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.571678638962246E-2</v>
+      </c>
+      <c r="AT8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.5192299324143667E-2</v>
+      </c>
+      <c r="AU8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.468824743734613E-2</v>
+      </c>
+      <c r="AV8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.4190739725679514E-2</v>
+      </c>
+      <c r="AW8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.3697902878220339E-2</v>
+      </c>
+      <c r="AX8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.3240153231250513E-2</v>
+      </c>
+      <c r="AY8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.2807329309871479E-2</v>
+      </c>
+      <c r="AZ8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.2385693776429178E-2</v>
+      </c>
+      <c r="BA8" s="27">
+        <f t="shared" si="1"/>
+        <v>3.1960619290683119E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <f>A8*About!$A$61</f>
-        <v>629047420741.72754</v>
-      </c>
-      <c r="B9" t="s">
-        <v>76</v>
-      </c>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -11072,6 +11362,10 @@
       <c r="AD9" s="26"/>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
@@ -11101,421 +11395,527 @@
       <c r="AD10" s="26"/>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="10">
+        <f>SUM('OECD VAL'!C9:AL9)*10^6</f>
+        <v>649385143000.00012</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="26"/>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <f>A11*About!$A$61</f>
+        <v>629047420741.72754</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>2015</v>
       </c>
-      <c r="C12">
+      <c r="C15">
         <v>2016</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>2017</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>2018</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <v>2019</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>2020</v>
       </c>
-      <c r="H12">
+      <c r="H15">
         <v>2021</v>
       </c>
-      <c r="I12">
+      <c r="I15">
         <v>2022</v>
       </c>
-      <c r="J12">
+      <c r="J15">
         <v>2023</v>
       </c>
-      <c r="K12">
+      <c r="K15">
         <v>2024</v>
       </c>
-      <c r="L12">
+      <c r="L15">
         <v>2025</v>
       </c>
-      <c r="M12">
+      <c r="M15">
         <v>2026</v>
       </c>
-      <c r="N12">
+      <c r="N15">
         <v>2027</v>
       </c>
-      <c r="O12">
+      <c r="O15">
         <v>2028</v>
       </c>
-      <c r="P12">
+      <c r="P15">
         <v>2029</v>
       </c>
-      <c r="Q12">
+      <c r="Q15">
         <v>2030</v>
       </c>
-      <c r="R12">
+      <c r="R15">
         <v>2031</v>
       </c>
-      <c r="S12">
+      <c r="S15">
         <v>2032</v>
       </c>
-      <c r="T12">
+      <c r="T15">
         <v>2033</v>
       </c>
-      <c r="U12">
+      <c r="U15">
         <v>2034</v>
       </c>
-      <c r="V12">
+      <c r="V15">
         <v>2035</v>
       </c>
-      <c r="W12">
+      <c r="W15">
         <v>2036</v>
       </c>
-      <c r="X12">
+      <c r="X15">
         <v>2037</v>
       </c>
-      <c r="Y12">
+      <c r="Y15">
         <v>2038</v>
       </c>
-      <c r="Z12">
+      <c r="Z15">
         <v>2039</v>
       </c>
-      <c r="AA12">
+      <c r="AA15">
         <v>2040</v>
       </c>
-      <c r="AB12">
+      <c r="AB15">
         <v>2041</v>
       </c>
-      <c r="AC12">
+      <c r="AC15">
         <v>2042</v>
       </c>
-      <c r="AD12">
+      <c r="AD15">
         <v>2043</v>
       </c>
-      <c r="AE12">
+      <c r="AE15">
         <v>2044</v>
       </c>
-      <c r="AF12">
+      <c r="AF15">
         <v>2045</v>
       </c>
-      <c r="AG12">
+      <c r="AG15">
         <v>2046</v>
       </c>
-      <c r="AH12">
+      <c r="AH15">
         <v>2047</v>
       </c>
-      <c r="AI12">
+      <c r="AI15">
         <v>2048</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ15">
         <v>2049</v>
       </c>
-      <c r="AK12">
+      <c r="AK15">
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="11">
-        <f>R5</f>
-        <v>3.1611742002807461E-2</v>
-      </c>
-      <c r="C13" s="11">
-        <f t="shared" ref="C13:E13" si="33">S5</f>
-        <v>9.0897161364575277E-2</v>
-      </c>
-      <c r="D13" s="11">
-        <f t="shared" si="33"/>
-        <v>0.15598615256277742</v>
-      </c>
-      <c r="E13" s="11">
-        <f t="shared" si="33"/>
-        <v>2.2772694362331928E-2</v>
-      </c>
-      <c r="F13" s="11">
-        <f t="shared" ref="F13:AK13" si="34">V5</f>
-        <v>5.970048038542683E-2</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="34"/>
-        <v>7.7205751867782474E-2</v>
-      </c>
-      <c r="H13" s="11">
-        <f t="shared" si="34"/>
-        <v>7.3045926181804846E-2</v>
-      </c>
-      <c r="I13" s="11">
-        <f t="shared" si="34"/>
-        <v>6.9218665154499273E-2</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" si="34"/>
-        <v>6.5883971328087487E-2</v>
-      </c>
-      <c r="K13" s="11">
-        <f t="shared" si="34"/>
-        <v>6.3201205208500727E-2</v>
-      </c>
-      <c r="L13" s="11">
-        <f t="shared" si="34"/>
-        <v>6.1030698958429545E-2</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" si="34"/>
-        <v>5.9089502730628407E-2</v>
-      </c>
-      <c r="N13" s="11">
-        <f t="shared" si="34"/>
-        <v>5.7388621058867682E-2</v>
-      </c>
-      <c r="O13" s="11">
-        <f t="shared" si="34"/>
-        <v>5.5823662941576806E-2</v>
-      </c>
-      <c r="P13" s="11">
-        <f t="shared" si="34"/>
-        <v>5.4359428114498801E-2</v>
-      </c>
-      <c r="Q13" s="11">
-        <f t="shared" si="34"/>
-        <v>5.2970316744901998E-2</v>
-      </c>
-      <c r="R13" s="11">
-        <f t="shared" si="34"/>
-        <v>5.1645801918361801E-2</v>
-      </c>
-      <c r="S13" s="11">
-        <f t="shared" si="34"/>
-        <v>5.0343742018878312E-2</v>
-      </c>
-      <c r="T13" s="11">
-        <f t="shared" si="34"/>
-        <v>4.9110277548545238E-2</v>
-      </c>
-      <c r="U13" s="11">
-        <f t="shared" si="34"/>
-        <v>4.7921027176471016E-2</v>
-      </c>
-      <c r="V13" s="11">
-        <f t="shared" si="34"/>
-        <v>4.6761006871268496E-2</v>
-      </c>
-      <c r="W13" s="11">
-        <f t="shared" si="34"/>
-        <v>4.5633262528600005E-2</v>
-      </c>
-      <c r="X13" s="11">
-        <f t="shared" si="34"/>
-        <v>4.4565091880835336E-2</v>
-      </c>
-      <c r="Y13" s="11">
-        <f t="shared" si="34"/>
-        <v>4.355759797390004E-2</v>
-      </c>
-      <c r="Z13" s="11">
-        <f t="shared" si="34"/>
-        <v>4.2596416413886819E-2</v>
-      </c>
-      <c r="AA13" s="11">
-        <f t="shared" si="34"/>
-        <v>4.1670718626581421E-2</v>
-      </c>
-      <c r="AB13" s="11">
-        <f t="shared" si="34"/>
-        <v>4.077950135628617E-2</v>
-      </c>
-      <c r="AC13" s="11">
-        <f t="shared" si="34"/>
-        <v>3.9947479276370788E-2</v>
-      </c>
-      <c r="AD13" s="11">
-        <f t="shared" si="34"/>
-        <v>3.9167694143174753E-2</v>
-      </c>
-      <c r="AE13" s="11">
-        <f t="shared" si="34"/>
-        <v>3.8419846718280783E-2</v>
-      </c>
-      <c r="AF13" s="11">
-        <f t="shared" si="34"/>
-        <v>3.7685844127297093E-2</v>
-      </c>
-      <c r="AG13" s="11">
-        <f t="shared" si="34"/>
-        <v>3.6964181473330401E-2</v>
-      </c>
-      <c r="AH13" s="11">
-        <f t="shared" si="34"/>
-        <v>3.6280710896270475E-2</v>
-      </c>
-      <c r="AI13" s="11">
-        <f t="shared" si="34"/>
-        <v>3.562755851912474E-2</v>
-      </c>
-      <c r="AJ13" s="11">
-        <f t="shared" si="34"/>
-        <v>3.4986364705830594E-2</v>
-      </c>
-      <c r="AK13" s="11">
-        <f t="shared" si="34"/>
-        <v>3.4345443756328808E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="11">
+        <f>R8</f>
+        <v>1.9637433278238584E-2</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" ref="C16:E16" si="2">S8</f>
+        <v>7.8442957205823532E-2</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.14303062235420461</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="2"/>
+        <v>1.1539244309781033E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" ref="F16:AK16" si="3">V8</f>
+        <v>4.8330326817000731E-2</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="3"/>
+        <v>6.5944605472249701E-2</v>
+      </c>
+      <c r="H16" s="11">
+        <f t="shared" si="3"/>
+        <v>6.2122906952883986E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <f t="shared" si="3"/>
+        <v>5.8619013342068704E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="3"/>
+        <v>5.5605501559850015E-2</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="3"/>
+        <v>5.3241234373233318E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="3"/>
+        <v>5.1388214174024699E-2</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.9764156340438744E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.8380169773934854E-2</v>
+      </c>
+      <c r="O16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.7138572098261257E-2</v>
+      </c>
+      <c r="P16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.6005094727254746E-2</v>
+      </c>
+      <c r="Q16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.4950820874254616E-2</v>
+      </c>
+      <c r="R16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.3959890150311098E-2</v>
+      </c>
+      <c r="S16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.2990708301998977E-2</v>
+      </c>
+      <c r="T16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.2093369283704954E-2</v>
+      </c>
+      <c r="U16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.1247143527775421E-2</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" si="3"/>
+        <v>4.0430543774688577E-2</v>
+      </c>
+      <c r="W16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.9644857118581539E-2</v>
+      </c>
+      <c r="X16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.8910307583320959E-2</v>
+      </c>
+      <c r="Y16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.8219336546355981E-2</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.7553755441926739E-2</v>
+      </c>
+      <c r="AA16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.6904753053641624E-2</v>
+      </c>
+      <c r="AB16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.6284122990053083E-2</v>
+      </c>
+      <c r="AC16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.571678638962246E-2</v>
+      </c>
+      <c r="AD16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.5192299324143667E-2</v>
+      </c>
+      <c r="AE16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.468824743734613E-2</v>
+      </c>
+      <c r="AF16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.4190739725679514E-2</v>
+      </c>
+      <c r="AG16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.3697902878220339E-2</v>
+      </c>
+      <c r="AH16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.3240153231250513E-2</v>
+      </c>
+      <c r="AI16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.2807329309871479E-2</v>
+      </c>
+      <c r="AJ16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.2385693776429178E-2</v>
+      </c>
+      <c r="AK16" s="11">
+        <f t="shared" si="3"/>
+        <v>3.1960619290683119E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="13">
-        <f>A9*(1+B13)</f>
-        <v>648932705513.74646</v>
-      </c>
-      <c r="C14" s="13">
-        <f>B14*(1+C13)</f>
-        <v>707918846361.57983</v>
-      </c>
-      <c r="D14" s="13">
-        <f t="shared" ref="D14:AK14" si="35">C14*(1+D13)</f>
-        <v>818344383532.20264</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" si="35"/>
-        <v>836980290061.51233</v>
-      </c>
-      <c r="F14" s="13">
-        <f>E14*(1+F13)</f>
-        <v>886948415451.31848</v>
-      </c>
-      <c r="G14" s="13">
-        <f t="shared" si="35"/>
-        <v>955425934734.17578</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="35"/>
-        <v>1025215907034.9503</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="35"/>
-        <v>1096179983615.0687</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="35"/>
-        <v>1168400674225.9873</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="shared" si="35"/>
-        <v>1242245005003.4944</v>
-      </c>
-      <c r="L14" s="13">
-        <f t="shared" si="35"/>
-        <v>1318060085936.4753</v>
-      </c>
-      <c r="M14" s="13">
-        <f t="shared" si="35"/>
-        <v>1395943600983.551</v>
-      </c>
-      <c r="N14" s="13">
-        <f t="shared" si="35"/>
-        <v>1476054879319.9473</v>
-      </c>
-      <c r="O14" s="13">
-        <f t="shared" si="35"/>
-        <v>1558453669386.3738</v>
-      </c>
-      <c r="P14" s="13">
-        <f t="shared" si="35"/>
-        <v>1643170319597.1592</v>
-      </c>
-      <c r="Q14" s="13">
-        <f t="shared" si="35"/>
-        <v>1730209571892.0427</v>
-      </c>
-      <c r="R14" s="13">
-        <f t="shared" si="35"/>
-        <v>1819567632719.2329</v>
-      </c>
-      <c r="S14" s="13">
-        <f t="shared" si="35"/>
-        <v>1911171476206.7512</v>
-      </c>
-      <c r="T14" s="13">
-        <f t="shared" si="35"/>
-        <v>2005029637846.1277</v>
-      </c>
-      <c r="U14" s="13">
-        <f t="shared" si="35"/>
-        <v>2101112717610.9817</v>
-      </c>
-      <c r="V14" s="13">
-        <f t="shared" si="35"/>
-        <v>2199362863836.4985</v>
-      </c>
-      <c r="W14" s="13">
-        <f t="shared" si="35"/>
-        <v>2299726966797.603</v>
-      </c>
-      <c r="X14" s="13">
-        <f t="shared" si="35"/>
-        <v>2402214510373.7729</v>
-      </c>
-      <c r="Y14" s="13">
-        <f t="shared" si="35"/>
-        <v>2506849204263.7026</v>
-      </c>
-      <c r="Z14" s="13">
-        <f t="shared" si="35"/>
-        <v>2613631996855.3398</v>
-      </c>
-      <c r="AA14" s="13">
-        <f t="shared" si="35"/>
-        <v>2722543920389.729</v>
-      </c>
-      <c r="AB14" s="13">
-        <f t="shared" si="35"/>
-        <v>2833567903883.8105</v>
-      </c>
-      <c r="AC14" s="13">
-        <f t="shared" si="35"/>
-        <v>2946761799002.3984</v>
-      </c>
-      <c r="AD14" s="13">
-        <f t="shared" si="35"/>
-        <v>3062179663858.5156</v>
-      </c>
-      <c r="AE14" s="13">
-        <f t="shared" si="35"/>
-        <v>3179828137167.7964</v>
-      </c>
-      <c r="AF14" s="13">
-        <f t="shared" si="35"/>
-        <v>3299662644696.6958</v>
-      </c>
-      <c r="AG14" s="13">
-        <f t="shared" si="35"/>
-        <v>3421631973496.0337</v>
-      </c>
-      <c r="AH14" s="13">
-        <f t="shared" si="35"/>
-        <v>3545771213919.8784</v>
-      </c>
-      <c r="AI14" s="13">
-        <f t="shared" si="35"/>
-        <v>3672098385339.2373</v>
-      </c>
-      <c r="AJ14" s="13">
-        <f t="shared" si="35"/>
-        <v>3800571758684.4077</v>
-      </c>
-      <c r="AK14" s="13">
-        <f t="shared" si="35"/>
-        <v>3931104082264.1948</v>
-      </c>
+      <c r="B17" s="13">
+        <f>A12*(1+B16)</f>
+        <v>641400297495.39124</v>
+      </c>
+      <c r="C17" s="13">
+        <f>B17*(1+C16)</f>
+        <v>691713633583.62476</v>
+      </c>
+      <c r="D17" s="13">
+        <f t="shared" ref="D17:AK17" si="4">C17*(1+D16)</f>
+        <v>790649865085.97888</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="4"/>
+        <v>799773367042.70142</v>
+      </c>
+      <c r="F17" s="13">
+        <f>E17*(1+F16)</f>
+        <v>838426675251.40833</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="4"/>
+        <v>893716391568.27246</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="4"/>
+        <v>949236651803.93542</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="4"/>
+        <v>1004879967760.811</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="4"/>
+        <v>1060756822375.5968</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="4"/>
+        <v>1117232824968.7021</v>
+      </c>
+      <c r="L17" s="13">
+        <f>K17*(1+L16)</f>
+        <v>1174645424660.4446</v>
+      </c>
+      <c r="M17" s="13">
+        <f t="shared" si="4"/>
+        <v>1233100663217.8279</v>
+      </c>
+      <c r="N17" s="13">
+        <f t="shared" si="4"/>
+        <v>1292758282652.658</v>
+      </c>
+      <c r="O17" s="13">
+        <f t="shared" si="4"/>
+        <v>1353697062165.1047</v>
+      </c>
+      <c r="P17" s="13">
+        <f t="shared" si="4"/>
+        <v>1415974023742.0168</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="4"/>
+        <v>1479623218445.8418</v>
+      </c>
+      <c r="R17" s="13">
+        <f t="shared" si="4"/>
+        <v>1544667292592.5708</v>
+      </c>
+      <c r="S17" s="13">
+        <f t="shared" si="4"/>
+        <v>1611073633592.0564</v>
+      </c>
+      <c r="T17" s="13">
+        <f t="shared" si="4"/>
+        <v>1678889150994.0872</v>
+      </c>
+      <c r="U17" s="13">
+        <f t="shared" si="4"/>
+        <v>1748138532772.3655</v>
+      </c>
+      <c r="V17" s="13">
+        <f t="shared" si="4"/>
+        <v>1818816724245.8384</v>
+      </c>
+      <c r="W17" s="13">
+        <f t="shared" si="4"/>
+        <v>1890923453403.4509</v>
+      </c>
+      <c r="X17" s="13">
+        <f t="shared" si="4"/>
+        <v>1964499866591.8948</v>
+      </c>
+      <c r="Y17" s="13">
+        <f t="shared" si="4"/>
+        <v>2039581748138.4417</v>
+      </c>
+      <c r="Z17" s="13">
+        <f t="shared" si="4"/>
+        <v>2116175702311.8501</v>
+      </c>
+      <c r="AA17" s="13">
+        <f t="shared" si="4"/>
+        <v>2194272644023.7856</v>
+      </c>
+      <c r="AB17" s="13">
+        <f t="shared" si="4"/>
+        <v>2273889902513.2534</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="4"/>
+        <v>2355105942434.8384</v>
+      </c>
+      <c r="AD17" s="13">
+        <f t="shared" si="4"/>
+        <v>2437987535701.0747</v>
+      </c>
+      <c r="AE17" s="13">
+        <f t="shared" si="4"/>
+        <v>2522557050588.6396</v>
+      </c>
+      <c r="AF17" s="13">
+        <f t="shared" si="4"/>
+        <v>2608805142148.4937</v>
+      </c>
+      <c r="AG17" s="13">
+        <f t="shared" si="4"/>
+        <v>2696716404456.8154</v>
+      </c>
+      <c r="AH17" s="13">
+        <f t="shared" si="4"/>
+        <v>2786355670962.187</v>
+      </c>
+      <c r="AI17" s="13">
+        <f t="shared" si="4"/>
+        <v>2877768559033.8711</v>
+      </c>
+      <c r="AJ17" s="13">
+        <f t="shared" si="4"/>
+        <v>2970967090346.1777</v>
+      </c>
+      <c r="AK17" s="13">
+        <f t="shared" si="4"/>
+        <v>3065921038445.8809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="AK19" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
+++ b/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\India\India_Model\InputData\io-model\BPEaCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\io-model\BPEaCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F3052A-EF40-4B9A-83AF-488974C30BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{1123C965-C626-47FF-B97A-098977CD3CC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <sheet name="BPEaCP-employedpop" sheetId="8" r:id="rId10"/>
     <sheet name="BPEaCP-employeecomp" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -447,9 +446,6 @@
     <t>(USD 2012 $)</t>
   </si>
   <si>
-    <t>USD 2019 $</t>
-  </si>
-  <si>
     <t>USD 2012 $</t>
   </si>
   <si>
@@ -466,12 +462,15 @@
   </si>
   <si>
     <t>We start with 2015 Total Employee Compensation and scale this value by forecasted real GDP growth/capita</t>
+  </si>
+  <si>
+    <t>USD 2010 $</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
@@ -834,9 +833,9 @@
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{60584C86-1C12-49F9-A2AE-BB99BAC4A6EC}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{B4C9DD1A-39F2-4630-9872-DFCC541C84AB}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{63B9D23C-C46C-4A3E-B645-08E74149EC3A}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 3 2" xfId="5"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1290,6 +1289,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1297,7 +1297,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1347,6 +1346,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1500,61 +1500,61 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>641400297495.39124</c:v>
+                  <c:v>671462201011.56848</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>691713633583.62476</c:v>
+                  <c:v>718601533634.11047</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>790649865085.97888</c:v>
+                  <c:v>760597644393.35181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>799773367042.70142</c:v>
+                  <c:v>798277958947.26086</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>838426675251.40833</c:v>
+                  <c:v>822728501927.53235</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>893716391568.27246</c:v>
+                  <c:v>876983008397.9187</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>949236651803.93542</c:v>
+                  <c:v>931463742227.88306</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1004879967760.811</c:v>
+                  <c:v>986065227761.19238</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1060756822375.5968</c:v>
+                  <c:v>1040895879321.5811</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1117232824968.7021</c:v>
+                  <c:v>1096314460790.6742</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1174645424660.4446</c:v>
+                  <c:v>1152652103103.8655</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1233100663217.8279</c:v>
+                  <c:v>1210012862568.8618</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1292758282652.658</c:v>
+                  <c:v>1268553490288.5879</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1353697062165.1047</c:v>
+                  <c:v>1328351290451.0574</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1415974023742.0168</c:v>
+                  <c:v>1389462217399.3293</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1479623218445.8418</c:v>
+                  <c:v>1451919684645.1912</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1544667292592.5708</c:v>
+                  <c:v>1515745914489.2681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1611073633592.0564</c:v>
+                  <c:v>1580908904959.0232</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1678889150994.0872</c:v>
+                  <c:v>1647454687299.3613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,6 +1715,7 @@
         <c:idx val="0"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1746,6 +1747,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1753,7 +1755,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3280,24 +3281,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D524350-AB87-478F-BE2E-F548EFE9AD6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="2" max="2" width="73.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3305,256 +3306,256 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B23" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="32">
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="29"/>
     </row>
-    <row r="28" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B29" s="28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B30" s="32">
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B31" s="31" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B32" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B33" s="30"/>
     </row>
-    <row r="34" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B35" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B36" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B37" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B38" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B39" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>0.9686815713640794</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1.0529130131709286</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <f>10^6</f>
         <v>1000000</v>
@@ -3573,12 +3574,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS" xr:uid="{6BFC046D-FBF4-4CDE-94E6-3BD9264C4041}"/>
-    <hyperlink ref="B13" r:id="rId2" location="0" display="https://fred.stlouisfed.org/series/SLEMPTOTLSPZSIND - 0" xr:uid="{294DBEFB-1141-45FD-BAC2-70140948B62E}"/>
-    <hyperlink ref="B38" r:id="rId3" xr:uid="{53CD0C95-E294-4307-BEF1-B1C410FF2420}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{F25B7C8A-612E-4BEF-83C2-30F0C31DE36A}"/>
-    <hyperlink ref="B26" r:id="rId5" xr:uid="{1322CFA9-E74A-4186-9D9A-3F055E761918}"/>
-    <hyperlink ref="B32" r:id="rId6" xr:uid="{C0DEF7E5-1A5F-415D-8D13-B65D636E0EE3}"/>
+    <hyperlink ref="B19" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS"/>
+    <hyperlink ref="B13" r:id="rId2" location="0" display="https://fred.stlouisfed.org/series/SLEMPTOTLSPZSIND - 0"/>
+    <hyperlink ref="B38" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B26" r:id="rId5"/>
+    <hyperlink ref="B32" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -3586,7 +3587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E93FD9-0E1F-491A-A9F5-EE1CCFCBCFA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3594,13 +3595,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
     <col min="2" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
@@ -3701,7 +3702,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3840,7 +3841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADE7CEA-1BC2-4D8B-AD93-998F1C33A4B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -3850,13 +3851,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
     <col min="2" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>79</v>
       </c>
@@ -3957,137 +3958,137 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="10">
         <f>'EE Comp Projection'!F17</f>
-        <v>838426675251.40833</v>
+        <v>822728501927.53235</v>
       </c>
       <c r="C2" s="10">
         <f>'EE Comp Projection'!G17</f>
-        <v>893716391568.27246</v>
+        <v>876983008397.9187</v>
       </c>
       <c r="D2" s="10">
         <f>'EE Comp Projection'!H17</f>
-        <v>949236651803.93542</v>
+        <v>931463742227.88306</v>
       </c>
       <c r="E2" s="10">
         <f>'EE Comp Projection'!I17</f>
-        <v>1004879967760.811</v>
+        <v>986065227761.19238</v>
       </c>
       <c r="F2" s="10">
         <f>'EE Comp Projection'!J17</f>
-        <v>1060756822375.5968</v>
+        <v>1040895879321.5811</v>
       </c>
       <c r="G2" s="10">
         <f>'EE Comp Projection'!K17</f>
-        <v>1117232824968.7021</v>
+        <v>1096314460790.6742</v>
       </c>
       <c r="H2" s="10">
         <f>'EE Comp Projection'!L17</f>
-        <v>1174645424660.4446</v>
+        <v>1152652103103.8655</v>
       </c>
       <c r="I2" s="10">
         <f>'EE Comp Projection'!M17</f>
-        <v>1233100663217.8279</v>
+        <v>1210012862568.8618</v>
       </c>
       <c r="J2" s="10">
         <f>'EE Comp Projection'!N17</f>
-        <v>1292758282652.658</v>
+        <v>1268553490288.5879</v>
       </c>
       <c r="K2" s="10">
         <f>'EE Comp Projection'!O17</f>
-        <v>1353697062165.1047</v>
+        <v>1328351290451.0574</v>
       </c>
       <c r="L2" s="10">
         <f>'EE Comp Projection'!P17</f>
-        <v>1415974023742.0168</v>
+        <v>1389462217399.3293</v>
       </c>
       <c r="M2" s="10">
         <f>'EE Comp Projection'!Q17</f>
-        <v>1479623218445.8418</v>
+        <v>1451919684645.1912</v>
       </c>
       <c r="N2" s="10">
         <f>'EE Comp Projection'!R17</f>
-        <v>1544667292592.5708</v>
+        <v>1515745914489.2681</v>
       </c>
       <c r="O2" s="10">
         <f>'EE Comp Projection'!S17</f>
-        <v>1611073633592.0564</v>
+        <v>1580908904959.0232</v>
       </c>
       <c r="P2" s="10">
         <f>'EE Comp Projection'!T17</f>
-        <v>1678889150994.0872</v>
+        <v>1647454687299.3613</v>
       </c>
       <c r="Q2" s="10">
         <f>'EE Comp Projection'!U17</f>
-        <v>1748138532772.3655</v>
+        <v>1715407487241.9043</v>
       </c>
       <c r="R2" s="10">
         <f>'EE Comp Projection'!V17</f>
-        <v>1818816724245.8384</v>
+        <v>1784762344746.2666</v>
       </c>
       <c r="S2" s="10">
         <f>'EE Comp Projection'!W17</f>
-        <v>1890923453403.4509</v>
+        <v>1855518992894.3567</v>
       </c>
       <c r="T2" s="10">
         <f>'EE Comp Projection'!X17</f>
-        <v>1964499866591.8948</v>
+        <v>1927717807634.5701</v>
       </c>
       <c r="U2" s="10">
         <f>'EE Comp Projection'!Y17</f>
-        <v>2039581748138.4417</v>
+        <v>2001393903290.9595</v>
       </c>
       <c r="V2" s="10">
         <f>'EE Comp Projection'!Z17</f>
-        <v>2116175702311.8501</v>
+        <v>2076553760478.1108</v>
       </c>
       <c r="W2" s="10">
         <f>'EE Comp Projection'!AA17</f>
-        <v>2194272644023.7856</v>
+        <v>2153188464211.1665</v>
       </c>
       <c r="X2" s="10">
         <f>'EE Comp Projection'!AB17</f>
-        <v>2273889902513.2534</v>
+        <v>2231315019267.3677</v>
       </c>
       <c r="Y2" s="10">
         <f>'EE Comp Projection'!AC17</f>
-        <v>2355105942434.8384</v>
+        <v>2311010421178.4966</v>
       </c>
       <c r="Z2" s="10">
         <f>'EE Comp Projection'!AD17</f>
-        <v>2437987535701.0747</v>
+        <v>2392340191661.8257</v>
       </c>
       <c r="AA2" s="10">
         <f>'EE Comp Projection'!AE17</f>
-        <v>2522557050588.6396</v>
+        <v>2475326280184.4995</v>
       </c>
       <c r="AB2" s="10">
         <f>'EE Comp Projection'!AF17</f>
-        <v>2608805142148.4937</v>
+        <v>2559959516766.4224</v>
       </c>
       <c r="AC2" s="10">
         <f>'EE Comp Projection'!AG17</f>
-        <v>2696716404456.8154</v>
+        <v>2646224783934.5928</v>
       </c>
       <c r="AD2" s="10">
         <f>'EE Comp Projection'!AH17</f>
-        <v>2786355670962.187</v>
+        <v>2734185701236.9116</v>
       </c>
       <c r="AE2" s="10">
         <f>'EE Comp Projection'!AI17</f>
-        <v>2877768559033.8711</v>
+        <v>2823887031931.7334</v>
       </c>
       <c r="AF2" s="10">
         <f>'EE Comp Projection'!AJ17</f>
-        <v>2970967090346.1777</v>
+        <v>2915340572607.1035</v>
       </c>
       <c r="AG2" s="10">
         <f>'EE Comp Projection'!AK17</f>
-        <v>3065921038445.8809</v>
+        <v>3008516662750.8813</v>
       </c>
       <c r="AH2" s="10"/>
     </row>
@@ -4097,17 +4098,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4D4569-D43B-407E-BF6B-D144DA4F7038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2014</v>
       </c>
@@ -4124,7 +4125,7 @@
         <v>1293859294</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>1309053980</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2016</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>1324171354</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>1339180000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2018</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>1354052000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>1368738000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2020</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>1383198000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -4187,7 +4188,7 @@
         <v>1397423000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>1411415000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -4205,7 +4206,7 @@
         <v>1425158000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2024</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>1438635000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2025</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>1451829000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2026</v>
       </c>
@@ -4232,7 +4233,7 @@
         <v>1464726000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2027</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>1477312000</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2028</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>1489565000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2029</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>1501462000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2030</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>1512985000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2031</v>
       </c>
@@ -4277,7 +4278,7 @@
         <v>1524124000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2032</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>1534869000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2033</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>1545204000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -4304,7 +4305,7 @@
         <v>1555108000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2035</v>
       </c>
@@ -4313,7 +4314,7 @@
         <v>1564570000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2036</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>1573582000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2037</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>1582147000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2038</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>1590282000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2039</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>1598011000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2040</v>
       </c>
@@ -4358,7 +4359,7 @@
         <v>1605356000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2041</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>1612320000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2042</v>
       </c>
@@ -4376,7 +4377,7 @@
         <v>1618906000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2043</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>1625123000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2044</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>1630984000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2045</v>
       </c>
@@ -4403,7 +4404,7 @@
         <v>1636496000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2046</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>1641667000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2047</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>1646498000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2048</v>
       </c>
@@ -4430,7 +4431,7 @@
         <v>1650994000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2049</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>1655153000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2050</v>
       </c>
@@ -4454,18 +4455,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F692D72D-FB12-4EFD-BBFA-B9A83A93CCFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>99</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>101</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -4497,7 +4498,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>1053050912</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>1071477855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>2002</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>1089807112</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>2003</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>1108027848</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2004</v>
       </c>
@@ -4537,7 +4538,7 @@
         <v>1126135777</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>1144118674</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>2006</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>1161977719</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2007</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>1179681239</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2008</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>1197146906</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>2009</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>1214270132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>2010</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>1230980691</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>2011</v>
       </c>
@@ -4593,7 +4594,7 @@
         <v>1247236029</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>1263065852</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>1278562207</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
         <v>2014</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>1293859294</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2015</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>1309053980</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2016</v>
       </c>
@@ -4633,7 +4634,7 @@
         <v>1324171354</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2017</v>
       </c>
@@ -4641,7 +4642,7 @@
         <v>1339180000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>1354052000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2019</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>1368738000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>1383198000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>1397423000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>1411415000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2023</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>1425158000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2024</v>
       </c>
@@ -4697,7 +4698,7 @@
         <v>1438635000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2025</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>1451829000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2026</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>1464726000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2027</v>
       </c>
@@ -4721,7 +4722,7 @@
         <v>1477312000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2028</v>
       </c>
@@ -4729,7 +4730,7 @@
         <v>1489565000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2029</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>1501462000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2030</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>1512985000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2031</v>
       </c>
@@ -4753,7 +4754,7 @@
         <v>1524124000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2032</v>
       </c>
@@ -4761,7 +4762,7 @@
         <v>1534869000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>2033</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>1545204000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>2034</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>1555108000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>2035</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>1564570000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>2036</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>1573582000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>2037</v>
       </c>
@@ -4801,7 +4802,7 @@
         <v>1582147000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>2038</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>1590282000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>2039</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>1598011000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>2040</v>
       </c>
@@ -4825,7 +4826,7 @@
         <v>1605356000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>2041</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>1612320000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>2042</v>
       </c>
@@ -4841,7 +4842,7 @@
         <v>1618906000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>2043</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>1625123000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>2044</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>1630984000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>2045</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>1636496000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>2046</v>
       </c>
@@ -4873,7 +4874,7 @@
         <v>1641667000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2047</v>
       </c>
@@ -4881,7 +4882,7 @@
         <v>1646498000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>2048</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>1650994000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>2049</v>
       </c>
@@ -4897,7 +4898,7 @@
         <v>1655153000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>2050</v>
       </c>
@@ -4912,47 +4913,47 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D6C2AED-73AE-45CB-BD7F-6154AA286092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B881"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -4960,12 +4961,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>110</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="14">
         <v>33239</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>55.196998596191399</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="14">
         <v>33604</v>
       </c>
@@ -4989,7 +4990,7 @@
         <v>55.138999938964801</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="14">
         <v>33970</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>55.076999664306598</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="14">
         <v>34335</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>55.097000122070298</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="14">
         <v>34700</v>
       </c>
@@ -5013,7 +5014,7 @@
         <v>54.974998474121101</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="14">
         <v>35065</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>54.824001312255902</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="14">
         <v>35431</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>54.689998626708999</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="14">
         <v>35796</v>
       </c>
@@ -5037,7 +5038,7 @@
         <v>54.554000854492202</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="14">
         <v>36161</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>54.390998840332003</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="14">
         <v>36526</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>54.2820014953613</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="14">
         <v>36892</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>54.3810005187988</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="14">
         <v>37257</v>
       </c>
@@ -5069,7 +5070,7 @@
         <v>54.4539985656738</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="14">
         <v>37622</v>
       </c>
@@ -5077,7 +5078,7 @@
         <v>54.570999145507798</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14">
         <v>37987</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>54.735000610351598</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14">
         <v>38353</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>54.918998718261697</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="14">
         <v>38718</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>54.168998718261697</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="14">
         <v>39083</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>53.435001373291001</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="14">
         <v>39448</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>52.679000854492202</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="14">
         <v>39814</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>51.762001037597699</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="14">
         <v>40179</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>50.984001159667997</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="14">
         <v>40544</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>50.103000640869098</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="14">
         <v>40909</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>49.244998931884801</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="14">
         <v>41275</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>48.793998718261697</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="14">
         <v>41640</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>48.389999389648402</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="14">
         <v>42005</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>47.980998992919901</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="14">
         <v>42370</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>47.566001892089801</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="14">
         <v>42736</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>47.175998687744098</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="14">
         <v>43101</v>
       </c>
@@ -5197,7 +5198,7 @@
         <v>46.785999298095703</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="14">
         <v>43466</v>
       </c>
@@ -5205,3367 +5206,3367 @@
         <v>46.652999877929702</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157" s="5"/>
       <c r="B157" s="6"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158" s="5"/>
       <c r="B158" s="6"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159" s="5"/>
       <c r="B159" s="6"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160" s="5"/>
       <c r="B160" s="6"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161" s="5"/>
       <c r="B161" s="6"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162" s="5"/>
       <c r="B162" s="6"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163" s="5"/>
       <c r="B163" s="6"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164" s="5"/>
       <c r="B164" s="6"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165" s="5"/>
       <c r="B165" s="6"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" s="5"/>
       <c r="B166" s="6"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167" s="5"/>
       <c r="B167" s="6"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168" s="5"/>
       <c r="B168" s="6"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169" s="5"/>
       <c r="B169" s="6"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170" s="5"/>
       <c r="B170" s="6"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171" s="5"/>
       <c r="B171" s="6"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172" s="5"/>
       <c r="B172" s="6"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173" s="5"/>
       <c r="B173" s="6"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174" s="5"/>
       <c r="B174" s="6"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175" s="5"/>
       <c r="B175" s="6"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176" s="5"/>
       <c r="B176" s="6"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177" s="5"/>
       <c r="B177" s="6"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178" s="5"/>
       <c r="B178" s="6"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179" s="5"/>
       <c r="B179" s="6"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180" s="5"/>
       <c r="B180" s="6"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181" s="5"/>
       <c r="B181" s="6"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182" s="5"/>
       <c r="B182" s="6"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183" s="5"/>
       <c r="B183" s="6"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184" s="5"/>
       <c r="B184" s="6"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185" s="5"/>
       <c r="B185" s="6"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186" s="5"/>
       <c r="B186" s="6"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187" s="5"/>
       <c r="B187" s="6"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188" s="5"/>
       <c r="B188" s="6"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190" s="5"/>
       <c r="B190" s="6"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194" s="5"/>
       <c r="B194" s="6"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196" s="5"/>
       <c r="B196" s="6"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198" s="5"/>
       <c r="B198" s="6"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200" s="5"/>
       <c r="B200" s="6"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201" s="5"/>
       <c r="B201" s="6"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202" s="5"/>
       <c r="B202" s="6"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203" s="5"/>
       <c r="B203" s="6"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204" s="5"/>
       <c r="B204" s="6"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205" s="5"/>
       <c r="B205" s="6"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206" s="5"/>
       <c r="B206" s="6"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207" s="5"/>
       <c r="B207" s="6"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208" s="5"/>
       <c r="B208" s="6"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209" s="5"/>
       <c r="B209" s="6"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210" s="5"/>
       <c r="B210" s="6"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211" s="5"/>
       <c r="B211" s="6"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212" s="5"/>
       <c r="B212" s="6"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213" s="5"/>
       <c r="B213" s="6"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214" s="5"/>
       <c r="B214" s="6"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215" s="5"/>
       <c r="B215" s="6"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216" s="5"/>
       <c r="B216" s="6"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217" s="5"/>
       <c r="B217" s="6"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218" s="5"/>
       <c r="B218" s="6"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219" s="5"/>
       <c r="B219" s="6"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220" s="5"/>
       <c r="B220" s="6"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221" s="5"/>
       <c r="B221" s="6"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222" s="5"/>
       <c r="B222" s="6"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223" s="5"/>
       <c r="B223" s="6"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224" s="5"/>
       <c r="B224" s="6"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225" s="5"/>
       <c r="B225" s="6"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226" s="5"/>
       <c r="B226" s="6"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227" s="5"/>
       <c r="B227" s="6"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228" s="5"/>
       <c r="B228" s="6"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229" s="5"/>
       <c r="B229" s="6"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230" s="5"/>
       <c r="B230" s="6"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231" s="5"/>
       <c r="B231" s="6"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232" s="5"/>
       <c r="B232" s="6"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233" s="5"/>
       <c r="B233" s="6"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234" s="5"/>
       <c r="B234" s="6"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235" s="5"/>
       <c r="B235" s="6"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236" s="5"/>
       <c r="B236" s="6"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237" s="5"/>
       <c r="B237" s="6"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238" s="5"/>
       <c r="B238" s="6"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239" s="5"/>
       <c r="B239" s="6"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240" s="5"/>
       <c r="B240" s="6"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241" s="5"/>
       <c r="B241" s="6"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242" s="5"/>
       <c r="B242" s="6"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243" s="5"/>
       <c r="B243" s="6"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244" s="5"/>
       <c r="B244" s="6"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245" s="5"/>
       <c r="B245" s="6"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246" s="5"/>
       <c r="B246" s="6"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247" s="5"/>
       <c r="B247" s="6"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248" s="5"/>
       <c r="B248" s="6"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249" s="5"/>
       <c r="B249" s="6"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250" s="5"/>
       <c r="B250" s="6"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251" s="5"/>
       <c r="B251" s="6"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252" s="5"/>
       <c r="B252" s="6"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253" s="5"/>
       <c r="B253" s="6"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254" s="5"/>
       <c r="B254" s="6"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255" s="5"/>
       <c r="B255" s="6"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256" s="5"/>
       <c r="B256" s="6"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257" s="5"/>
       <c r="B257" s="6"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258" s="5"/>
       <c r="B258" s="6"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259" s="5"/>
       <c r="B259" s="6"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260" s="5"/>
       <c r="B260" s="6"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261" s="5"/>
       <c r="B261" s="6"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262" s="5"/>
       <c r="B262" s="6"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263" s="5"/>
       <c r="B263" s="6"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264" s="5"/>
       <c r="B264" s="6"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265" s="5"/>
       <c r="B265" s="6"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266" s="5"/>
       <c r="B266" s="6"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267" s="5"/>
       <c r="B267" s="6"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268" s="5"/>
       <c r="B268" s="6"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269" s="5"/>
       <c r="B269" s="6"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270" s="5"/>
       <c r="B270" s="6"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271" s="5"/>
       <c r="B271" s="6"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272" s="5"/>
       <c r="B272" s="6"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273" s="5"/>
       <c r="B273" s="6"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274" s="5"/>
       <c r="B274" s="6"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275" s="5"/>
       <c r="B275" s="6"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276" s="5"/>
       <c r="B276" s="6"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277" s="5"/>
       <c r="B277" s="6"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278" s="5"/>
       <c r="B278" s="6"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279" s="5"/>
       <c r="B279" s="6"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280" s="5"/>
       <c r="B280" s="6"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281" s="5"/>
       <c r="B281" s="6"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282" s="5"/>
       <c r="B282" s="6"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283" s="5"/>
       <c r="B283" s="6"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284" s="5"/>
       <c r="B284" s="6"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285" s="5"/>
       <c r="B285" s="6"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289" s="5"/>
       <c r="B289" s="6"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290" s="5"/>
       <c r="B290" s="6"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291" s="5"/>
       <c r="B291" s="6"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292" s="5"/>
       <c r="B292" s="6"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293" s="5"/>
       <c r="B293" s="6"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294" s="5"/>
       <c r="B294" s="6"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295" s="5"/>
       <c r="B295" s="6"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296" s="5"/>
       <c r="B296" s="6"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297" s="5"/>
       <c r="B297" s="6"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298" s="5"/>
       <c r="B298" s="6"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299" s="5"/>
       <c r="B299" s="6"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300" s="5"/>
       <c r="B300" s="6"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301" s="5"/>
       <c r="B301" s="6"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302" s="5"/>
       <c r="B302" s="6"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303" s="5"/>
       <c r="B303" s="6"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304" s="5"/>
       <c r="B304" s="6"/>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305" s="5"/>
       <c r="B305" s="6"/>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306" s="5"/>
       <c r="B306" s="6"/>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307" s="5"/>
       <c r="B307" s="6"/>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308" s="5"/>
       <c r="B308" s="6"/>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309" s="5"/>
       <c r="B309" s="6"/>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310" s="5"/>
       <c r="B310" s="6"/>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311" s="5"/>
       <c r="B311" s="6"/>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312" s="5"/>
       <c r="B312" s="6"/>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313" s="5"/>
       <c r="B313" s="6"/>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314" s="5"/>
       <c r="B314" s="6"/>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315" s="5"/>
       <c r="B315" s="6"/>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316" s="5"/>
       <c r="B316" s="6"/>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317" s="5"/>
       <c r="B317" s="6"/>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318" s="5"/>
       <c r="B318" s="6"/>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319" s="5"/>
       <c r="B319" s="6"/>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320" s="5"/>
       <c r="B320" s="6"/>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321" s="5"/>
       <c r="B321" s="6"/>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322" s="5"/>
       <c r="B322" s="6"/>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323" s="5"/>
       <c r="B323" s="6"/>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324" s="5"/>
       <c r="B324" s="6"/>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325" s="5"/>
       <c r="B325" s="6"/>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326" s="5"/>
       <c r="B326" s="6"/>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327" s="5"/>
       <c r="B327" s="6"/>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328" s="5"/>
       <c r="B328" s="6"/>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329" s="5"/>
       <c r="B329" s="6"/>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330" s="5"/>
       <c r="B330" s="6"/>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331" s="5"/>
       <c r="B331" s="6"/>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332" s="5"/>
       <c r="B332" s="6"/>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333" s="5"/>
       <c r="B333" s="6"/>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334" s="5"/>
       <c r="B334" s="6"/>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335" s="5"/>
       <c r="B335" s="6"/>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336" s="5"/>
       <c r="B336" s="6"/>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337" s="5"/>
       <c r="B337" s="6"/>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338" s="5"/>
       <c r="B338" s="6"/>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339" s="5"/>
       <c r="B339" s="6"/>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340" s="5"/>
       <c r="B340" s="6"/>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341" s="5"/>
       <c r="B341" s="6"/>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342" s="5"/>
       <c r="B342" s="6"/>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343" s="5"/>
       <c r="B343" s="6"/>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344" s="5"/>
       <c r="B344" s="6"/>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345" s="5"/>
       <c r="B345" s="6"/>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346" s="5"/>
       <c r="B346" s="6"/>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347" s="5"/>
       <c r="B347" s="6"/>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348" s="5"/>
       <c r="B348" s="6"/>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349" s="5"/>
       <c r="B349" s="6"/>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350" s="5"/>
       <c r="B350" s="6"/>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351" s="5"/>
       <c r="B351" s="6"/>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352" s="5"/>
       <c r="B352" s="6"/>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353" s="5"/>
       <c r="B353" s="6"/>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354" s="5"/>
       <c r="B354" s="6"/>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355" s="5"/>
       <c r="B355" s="6"/>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356" s="5"/>
       <c r="B356" s="6"/>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357" s="5"/>
       <c r="B357" s="6"/>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358" s="5"/>
       <c r="B358" s="6"/>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359" s="5"/>
       <c r="B359" s="6"/>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360" s="5"/>
       <c r="B360" s="6"/>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361" s="5"/>
       <c r="B361" s="6"/>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362" s="5"/>
       <c r="B362" s="6"/>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363" s="5"/>
       <c r="B363" s="6"/>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364" s="5"/>
       <c r="B364" s="6"/>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365" s="5"/>
       <c r="B365" s="6"/>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366" s="5"/>
       <c r="B366" s="6"/>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367" s="5"/>
       <c r="B367" s="6"/>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368" s="5"/>
       <c r="B368" s="6"/>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369" s="5"/>
       <c r="B369" s="6"/>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370" s="5"/>
       <c r="B370" s="6"/>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371" s="5"/>
       <c r="B371" s="6"/>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372" s="5"/>
       <c r="B372" s="6"/>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373" s="5"/>
       <c r="B373" s="6"/>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374" s="5"/>
       <c r="B374" s="6"/>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375" s="5"/>
       <c r="B375" s="6"/>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376" s="5"/>
       <c r="B376" s="6"/>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377" s="5"/>
       <c r="B377" s="6"/>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378" s="5"/>
       <c r="B378" s="6"/>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379" s="5"/>
       <c r="B379" s="6"/>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380" s="5"/>
       <c r="B380" s="6"/>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381" s="5"/>
       <c r="B381" s="6"/>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382" s="5"/>
       <c r="B382" s="6"/>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383" s="5"/>
       <c r="B383" s="6"/>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384" s="5"/>
       <c r="B384" s="6"/>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385" s="5"/>
       <c r="B385" s="6"/>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386" s="5"/>
       <c r="B386" s="6"/>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387" s="5"/>
       <c r="B387" s="6"/>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388" s="5"/>
       <c r="B388" s="6"/>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389" s="5"/>
       <c r="B389" s="6"/>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390" s="5"/>
       <c r="B390" s="6"/>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391" s="5"/>
       <c r="B391" s="6"/>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392" s="5"/>
       <c r="B392" s="6"/>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393" s="5"/>
       <c r="B393" s="6"/>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394" s="5"/>
       <c r="B394" s="6"/>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395" s="5"/>
       <c r="B395" s="6"/>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396" s="5"/>
       <c r="B396" s="6"/>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397" s="5"/>
       <c r="B397" s="6"/>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398" s="5"/>
       <c r="B398" s="6"/>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399" s="5"/>
       <c r="B399" s="6"/>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400" s="5"/>
       <c r="B400" s="6"/>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401" s="5"/>
       <c r="B401" s="6"/>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402" s="5"/>
       <c r="B402" s="6"/>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403" s="5"/>
       <c r="B403" s="6"/>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404" s="5"/>
       <c r="B404" s="6"/>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405" s="5"/>
       <c r="B405" s="6"/>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406" s="5"/>
       <c r="B406" s="6"/>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407" s="5"/>
       <c r="B407" s="6"/>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408" s="5"/>
       <c r="B408" s="6"/>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409" s="5"/>
       <c r="B409" s="6"/>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410" s="5"/>
       <c r="B410" s="6"/>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411" s="5"/>
       <c r="B411" s="6"/>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412" s="5"/>
       <c r="B412" s="6"/>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413" s="5"/>
       <c r="B413" s="6"/>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414" s="5"/>
       <c r="B414" s="6"/>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415" s="5"/>
       <c r="B415" s="6"/>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416" s="5"/>
       <c r="B416" s="6"/>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417" s="5"/>
       <c r="B417" s="6"/>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418" s="5"/>
       <c r="B418" s="6"/>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419" s="5"/>
       <c r="B419" s="6"/>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420" s="5"/>
       <c r="B420" s="6"/>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421" s="5"/>
       <c r="B421" s="6"/>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422" s="5"/>
       <c r="B422" s="6"/>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423" s="5"/>
       <c r="B423" s="6"/>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424" s="5"/>
       <c r="B424" s="6"/>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425" s="5"/>
       <c r="B425" s="6"/>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426" s="5"/>
       <c r="B426" s="6"/>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427" s="5"/>
       <c r="B427" s="6"/>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428" s="5"/>
       <c r="B428" s="6"/>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429" s="5"/>
       <c r="B429" s="6"/>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430" s="5"/>
       <c r="B430" s="6"/>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431" s="5"/>
       <c r="B431" s="6"/>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432" s="5"/>
       <c r="B432" s="6"/>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433" s="5"/>
       <c r="B433" s="6"/>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434" s="5"/>
       <c r="B434" s="6"/>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435" s="5"/>
       <c r="B435" s="6"/>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436" s="5"/>
       <c r="B436" s="6"/>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437" s="5"/>
       <c r="B437" s="6"/>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438" s="5"/>
       <c r="B438" s="6"/>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439" s="5"/>
       <c r="B439" s="6"/>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440" s="5"/>
       <c r="B440" s="6"/>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441" s="5"/>
       <c r="B441" s="6"/>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442" s="5"/>
       <c r="B442" s="6"/>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443" s="5"/>
       <c r="B443" s="6"/>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444" s="5"/>
       <c r="B444" s="6"/>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445" s="5"/>
       <c r="B445" s="6"/>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446" s="5"/>
       <c r="B446" s="6"/>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447" s="5"/>
       <c r="B447" s="6"/>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448" s="5"/>
       <c r="B448" s="6"/>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449" s="5"/>
       <c r="B449" s="6"/>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450" s="5"/>
       <c r="B450" s="6"/>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451" s="5"/>
       <c r="B451" s="6"/>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452" s="5"/>
       <c r="B452" s="6"/>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453" s="5"/>
       <c r="B453" s="6"/>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454" s="5"/>
       <c r="B454" s="6"/>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455" s="5"/>
       <c r="B455" s="6"/>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456" s="5"/>
       <c r="B456" s="6"/>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457" s="5"/>
       <c r="B457" s="6"/>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458" s="5"/>
       <c r="B458" s="6"/>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A459" s="5"/>
       <c r="B459" s="6"/>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A460" s="5"/>
       <c r="B460" s="6"/>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A461" s="5"/>
       <c r="B461" s="6"/>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462" s="5"/>
       <c r="B462" s="6"/>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463" s="5"/>
       <c r="B463" s="6"/>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464" s="5"/>
       <c r="B464" s="6"/>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A465" s="5"/>
       <c r="B465" s="6"/>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A466" s="5"/>
       <c r="B466" s="6"/>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A467" s="5"/>
       <c r="B467" s="6"/>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A468" s="5"/>
       <c r="B468" s="6"/>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A469" s="5"/>
       <c r="B469" s="6"/>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A470" s="5"/>
       <c r="B470" s="6"/>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A471" s="5"/>
       <c r="B471" s="6"/>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A472" s="5"/>
       <c r="B472" s="6"/>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A473" s="5"/>
       <c r="B473" s="6"/>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A474" s="5"/>
       <c r="B474" s="6"/>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A475" s="5"/>
       <c r="B475" s="6"/>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A476" s="5"/>
       <c r="B476" s="6"/>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A477" s="5"/>
       <c r="B477" s="6"/>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A478" s="5"/>
       <c r="B478" s="6"/>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A479" s="5"/>
       <c r="B479" s="6"/>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A480" s="5"/>
       <c r="B480" s="6"/>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A481" s="5"/>
       <c r="B481" s="6"/>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A482" s="5"/>
       <c r="B482" s="6"/>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A483" s="5"/>
       <c r="B483" s="6"/>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A484" s="5"/>
       <c r="B484" s="6"/>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A485" s="5"/>
       <c r="B485" s="6"/>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A486" s="5"/>
       <c r="B486" s="6"/>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A487" s="5"/>
       <c r="B487" s="6"/>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A488" s="5"/>
       <c r="B488" s="6"/>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A489" s="5"/>
       <c r="B489" s="6"/>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A490" s="5"/>
       <c r="B490" s="6"/>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A491" s="5"/>
       <c r="B491" s="6"/>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A492" s="5"/>
       <c r="B492" s="6"/>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A493" s="5"/>
       <c r="B493" s="6"/>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A494" s="5"/>
       <c r="B494" s="6"/>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A495" s="5"/>
       <c r="B495" s="6"/>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A496" s="5"/>
       <c r="B496" s="6"/>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A497" s="5"/>
       <c r="B497" s="6"/>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A498" s="5"/>
       <c r="B498" s="6"/>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A499" s="5"/>
       <c r="B499" s="6"/>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A500" s="5"/>
       <c r="B500" s="6"/>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A501" s="5"/>
       <c r="B501" s="6"/>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A502" s="5"/>
       <c r="B502" s="6"/>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A503" s="5"/>
       <c r="B503" s="6"/>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A504" s="5"/>
       <c r="B504" s="6"/>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A505" s="5"/>
       <c r="B505" s="6"/>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506" s="5"/>
       <c r="B506" s="6"/>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507" s="5"/>
       <c r="B507" s="6"/>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508" s="5"/>
       <c r="B508" s="6"/>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509" s="5"/>
       <c r="B509" s="6"/>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510" s="5"/>
       <c r="B510" s="6"/>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511" s="5"/>
       <c r="B511" s="6"/>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512" s="5"/>
       <c r="B512" s="6"/>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A513" s="5"/>
       <c r="B513" s="6"/>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A514" s="5"/>
       <c r="B514" s="6"/>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A515" s="5"/>
       <c r="B515" s="6"/>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A516" s="5"/>
       <c r="B516" s="6"/>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A517" s="5"/>
       <c r="B517" s="6"/>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A518" s="5"/>
       <c r="B518" s="6"/>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A519" s="5"/>
       <c r="B519" s="6"/>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A520" s="5"/>
       <c r="B520" s="6"/>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A521" s="5"/>
       <c r="B521" s="6"/>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A522" s="5"/>
       <c r="B522" s="6"/>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A523" s="5"/>
       <c r="B523" s="6"/>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A524" s="5"/>
       <c r="B524" s="6"/>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A525" s="5"/>
       <c r="B525" s="6"/>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A526" s="5"/>
       <c r="B526" s="6"/>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A527" s="5"/>
       <c r="B527" s="6"/>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A528" s="5"/>
       <c r="B528" s="6"/>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A529" s="5"/>
       <c r="B529" s="6"/>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A530" s="5"/>
       <c r="B530" s="6"/>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A531" s="5"/>
       <c r="B531" s="6"/>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A532" s="5"/>
       <c r="B532" s="6"/>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A533" s="5"/>
       <c r="B533" s="6"/>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A534" s="5"/>
       <c r="B534" s="6"/>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A535" s="5"/>
       <c r="B535" s="6"/>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A536" s="5"/>
       <c r="B536" s="6"/>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A537" s="5"/>
       <c r="B537" s="6"/>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A538" s="5"/>
       <c r="B538" s="6"/>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A539" s="5"/>
       <c r="B539" s="6"/>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A540" s="5"/>
       <c r="B540" s="6"/>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A541" s="5"/>
       <c r="B541" s="6"/>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A542" s="5"/>
       <c r="B542" s="6"/>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A543" s="5"/>
       <c r="B543" s="6"/>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A544" s="5"/>
       <c r="B544" s="6"/>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A545" s="5"/>
       <c r="B545" s="6"/>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A546" s="5"/>
       <c r="B546" s="6"/>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A547" s="5"/>
       <c r="B547" s="6"/>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A548" s="5"/>
       <c r="B548" s="6"/>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A549" s="5"/>
       <c r="B549" s="6"/>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A550" s="5"/>
       <c r="B550" s="6"/>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A551" s="5"/>
       <c r="B551" s="6"/>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A552" s="5"/>
       <c r="B552" s="6"/>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A553" s="5"/>
       <c r="B553" s="6"/>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A554" s="5"/>
       <c r="B554" s="6"/>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A555" s="5"/>
       <c r="B555" s="6"/>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A556" s="5"/>
       <c r="B556" s="6"/>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A557" s="5"/>
       <c r="B557" s="6"/>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A558" s="5"/>
       <c r="B558" s="6"/>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A559" s="5"/>
       <c r="B559" s="6"/>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A560" s="5"/>
       <c r="B560" s="6"/>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A561" s="5"/>
       <c r="B561" s="6"/>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A562" s="5"/>
       <c r="B562" s="6"/>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A563" s="5"/>
       <c r="B563" s="6"/>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A564" s="5"/>
       <c r="B564" s="6"/>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A565" s="5"/>
       <c r="B565" s="6"/>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A566" s="5"/>
       <c r="B566" s="6"/>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A567" s="5"/>
       <c r="B567" s="6"/>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A568" s="5"/>
       <c r="B568" s="6"/>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A569" s="5"/>
       <c r="B569" s="6"/>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A570" s="5"/>
       <c r="B570" s="6"/>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A571" s="5"/>
       <c r="B571" s="6"/>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A572" s="5"/>
       <c r="B572" s="6"/>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A573" s="5"/>
       <c r="B573" s="6"/>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A574" s="5"/>
       <c r="B574" s="6"/>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A575" s="5"/>
       <c r="B575" s="6"/>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A576" s="5"/>
       <c r="B576" s="6"/>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A577" s="5"/>
       <c r="B577" s="6"/>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A578" s="5"/>
       <c r="B578" s="6"/>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A579" s="5"/>
       <c r="B579" s="6"/>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A580" s="5"/>
       <c r="B580" s="6"/>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A581" s="5"/>
       <c r="B581" s="6"/>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A582" s="5"/>
       <c r="B582" s="6"/>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A583" s="5"/>
       <c r="B583" s="6"/>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A584" s="5"/>
       <c r="B584" s="6"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A585" s="5"/>
       <c r="B585" s="6"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A586" s="5"/>
       <c r="B586" s="6"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A587" s="5"/>
       <c r="B587" s="6"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A588" s="5"/>
       <c r="B588" s="6"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A589" s="5"/>
       <c r="B589" s="6"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A590" s="5"/>
       <c r="B590" s="6"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A591" s="5"/>
       <c r="B591" s="6"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A592" s="5"/>
       <c r="B592" s="6"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A593" s="5"/>
       <c r="B593" s="6"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A594" s="5"/>
       <c r="B594" s="6"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A595" s="5"/>
       <c r="B595" s="6"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A596" s="5"/>
       <c r="B596" s="6"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A597" s="5"/>
       <c r="B597" s="6"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A598" s="5"/>
       <c r="B598" s="6"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A599" s="5"/>
       <c r="B599" s="6"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A600" s="5"/>
       <c r="B600" s="6"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A601" s="5"/>
       <c r="B601" s="6"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A602" s="5"/>
       <c r="B602" s="6"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A603" s="5"/>
       <c r="B603" s="6"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A604" s="5"/>
       <c r="B604" s="6"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A605" s="5"/>
       <c r="B605" s="6"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A606" s="5"/>
       <c r="B606" s="6"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A607" s="5"/>
       <c r="B607" s="6"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A608" s="5"/>
       <c r="B608" s="6"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A609" s="5"/>
       <c r="B609" s="6"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A610" s="5"/>
       <c r="B610" s="6"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A611" s="5"/>
       <c r="B611" s="6"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A612" s="5"/>
       <c r="B612" s="6"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A613" s="5"/>
       <c r="B613" s="6"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A614" s="5"/>
       <c r="B614" s="6"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A615" s="5"/>
       <c r="B615" s="6"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A616" s="5"/>
       <c r="B616" s="6"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A617" s="5"/>
       <c r="B617" s="6"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A618" s="5"/>
       <c r="B618" s="6"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A619" s="5"/>
       <c r="B619" s="6"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A620" s="5"/>
       <c r="B620" s="6"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A621" s="5"/>
       <c r="B621" s="6"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A622" s="5"/>
       <c r="B622" s="6"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A623" s="5"/>
       <c r="B623" s="6"/>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A624" s="5"/>
       <c r="B624" s="6"/>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A625" s="5"/>
       <c r="B625" s="6"/>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A626" s="5"/>
       <c r="B626" s="6"/>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A627" s="5"/>
       <c r="B627" s="6"/>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A628" s="5"/>
       <c r="B628" s="6"/>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A629" s="5"/>
       <c r="B629" s="6"/>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A630" s="5"/>
       <c r="B630" s="6"/>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A631" s="5"/>
       <c r="B631" s="6"/>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A632" s="5"/>
       <c r="B632" s="6"/>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A633" s="5"/>
       <c r="B633" s="6"/>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A634" s="5"/>
       <c r="B634" s="6"/>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A635" s="5"/>
       <c r="B635" s="6"/>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A636" s="5"/>
       <c r="B636" s="6"/>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A637" s="5"/>
       <c r="B637" s="6"/>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A638" s="5"/>
       <c r="B638" s="6"/>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A639" s="5"/>
       <c r="B639" s="6"/>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A640" s="5"/>
       <c r="B640" s="6"/>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A641" s="5"/>
       <c r="B641" s="6"/>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A642" s="5"/>
       <c r="B642" s="6"/>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A643" s="5"/>
       <c r="B643" s="6"/>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A644" s="5"/>
       <c r="B644" s="6"/>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A645" s="5"/>
       <c r="B645" s="6"/>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A646" s="5"/>
       <c r="B646" s="6"/>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A647" s="5"/>
       <c r="B647" s="6"/>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A648" s="5"/>
       <c r="B648" s="6"/>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A649" s="5"/>
       <c r="B649" s="6"/>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A650" s="5"/>
       <c r="B650" s="6"/>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A651" s="5"/>
       <c r="B651" s="6"/>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A652" s="5"/>
       <c r="B652" s="6"/>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A653" s="5"/>
       <c r="B653" s="6"/>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A654" s="5"/>
       <c r="B654" s="6"/>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A655" s="5"/>
       <c r="B655" s="6"/>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A656" s="5"/>
       <c r="B656" s="6"/>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A657" s="5"/>
       <c r="B657" s="6"/>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A658" s="5"/>
       <c r="B658" s="6"/>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A659" s="5"/>
       <c r="B659" s="6"/>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A660" s="5"/>
       <c r="B660" s="6"/>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A661" s="5"/>
       <c r="B661" s="6"/>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A662" s="5"/>
       <c r="B662" s="6"/>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A663" s="5"/>
       <c r="B663" s="6"/>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A664" s="5"/>
       <c r="B664" s="6"/>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A665" s="5"/>
       <c r="B665" s="6"/>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A666" s="5"/>
       <c r="B666" s="6"/>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A667" s="5"/>
       <c r="B667" s="6"/>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A668" s="5"/>
       <c r="B668" s="6"/>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A669" s="5"/>
       <c r="B669" s="6"/>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A670" s="5"/>
       <c r="B670" s="6"/>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A671" s="5"/>
       <c r="B671" s="6"/>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A672" s="5"/>
       <c r="B672" s="6"/>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A673" s="5"/>
       <c r="B673" s="6"/>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A674" s="5"/>
       <c r="B674" s="6"/>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A675" s="5"/>
       <c r="B675" s="6"/>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A676" s="5"/>
       <c r="B676" s="6"/>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A677" s="5"/>
       <c r="B677" s="6"/>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A678" s="5"/>
       <c r="B678" s="6"/>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A679" s="5"/>
       <c r="B679" s="6"/>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A680" s="5"/>
       <c r="B680" s="6"/>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A681" s="5"/>
       <c r="B681" s="6"/>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A682" s="5"/>
       <c r="B682" s="6"/>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A683" s="5"/>
       <c r="B683" s="6"/>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A684" s="5"/>
       <c r="B684" s="6"/>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A685" s="5"/>
       <c r="B685" s="6"/>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A686" s="5"/>
       <c r="B686" s="6"/>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A687" s="5"/>
       <c r="B687" s="6"/>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A688" s="5"/>
       <c r="B688" s="6"/>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A689" s="5"/>
       <c r="B689" s="6"/>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A690" s="5"/>
       <c r="B690" s="6"/>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A691" s="5"/>
       <c r="B691" s="6"/>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A692" s="5"/>
       <c r="B692" s="6"/>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A693" s="5"/>
       <c r="B693" s="6"/>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A694" s="5"/>
       <c r="B694" s="6"/>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A695" s="5"/>
       <c r="B695" s="6"/>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A696" s="5"/>
       <c r="B696" s="6"/>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A697" s="5"/>
       <c r="B697" s="6"/>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A698" s="5"/>
       <c r="B698" s="6"/>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A699" s="5"/>
       <c r="B699" s="6"/>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A700" s="5"/>
       <c r="B700" s="6"/>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A701" s="5"/>
       <c r="B701" s="6"/>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A702" s="5"/>
       <c r="B702" s="6"/>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A703" s="5"/>
       <c r="B703" s="6"/>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A704" s="5"/>
       <c r="B704" s="6"/>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A705" s="5"/>
       <c r="B705" s="6"/>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A706" s="5"/>
       <c r="B706" s="6"/>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A707" s="5"/>
       <c r="B707" s="6"/>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A708" s="5"/>
       <c r="B708" s="6"/>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A709" s="5"/>
       <c r="B709" s="6"/>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A710" s="5"/>
       <c r="B710" s="6"/>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A711" s="5"/>
       <c r="B711" s="6"/>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A712" s="5"/>
       <c r="B712" s="6"/>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A713" s="5"/>
       <c r="B713" s="6"/>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A714" s="5"/>
       <c r="B714" s="6"/>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A715" s="5"/>
       <c r="B715" s="6"/>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A716" s="5"/>
       <c r="B716" s="6"/>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A717" s="5"/>
       <c r="B717" s="6"/>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A718" s="5"/>
       <c r="B718" s="6"/>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A719" s="5"/>
       <c r="B719" s="6"/>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A720" s="5"/>
       <c r="B720" s="6"/>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A721" s="5"/>
       <c r="B721" s="6"/>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A722" s="5"/>
       <c r="B722" s="6"/>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A723" s="5"/>
       <c r="B723" s="6"/>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A724" s="5"/>
       <c r="B724" s="6"/>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A725" s="5"/>
       <c r="B725" s="6"/>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A726" s="5"/>
       <c r="B726" s="6"/>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A727" s="5"/>
       <c r="B727" s="6"/>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A728" s="5"/>
       <c r="B728" s="6"/>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A729" s="5"/>
       <c r="B729" s="6"/>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A730" s="5"/>
       <c r="B730" s="6"/>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A731" s="5"/>
       <c r="B731" s="6"/>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A732" s="5"/>
       <c r="B732" s="6"/>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A733" s="5"/>
       <c r="B733" s="6"/>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A734" s="5"/>
       <c r="B734" s="6"/>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A735" s="5"/>
       <c r="B735" s="6"/>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A736" s="5"/>
       <c r="B736" s="6"/>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A737" s="5"/>
       <c r="B737" s="6"/>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A738" s="5"/>
       <c r="B738" s="6"/>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A739" s="5"/>
       <c r="B739" s="6"/>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A740" s="5"/>
       <c r="B740" s="6"/>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A741" s="5"/>
       <c r="B741" s="6"/>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A742" s="5"/>
       <c r="B742" s="6"/>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A743" s="5"/>
       <c r="B743" s="6"/>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A744" s="5"/>
       <c r="B744" s="6"/>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A745" s="5"/>
       <c r="B745" s="6"/>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A746" s="5"/>
       <c r="B746" s="6"/>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A747" s="5"/>
       <c r="B747" s="6"/>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A748" s="5"/>
       <c r="B748" s="6"/>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A749" s="5"/>
       <c r="B749" s="6"/>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A750" s="5"/>
       <c r="B750" s="6"/>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A751" s="5"/>
       <c r="B751" s="6"/>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A752" s="5"/>
       <c r="B752" s="6"/>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A753" s="5"/>
       <c r="B753" s="6"/>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A754" s="5"/>
       <c r="B754" s="6"/>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A755" s="5"/>
       <c r="B755" s="6"/>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A756" s="5"/>
       <c r="B756" s="6"/>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A757" s="5"/>
       <c r="B757" s="6"/>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A758" s="5"/>
       <c r="B758" s="6"/>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A759" s="5"/>
       <c r="B759" s="6"/>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A760" s="5"/>
       <c r="B760" s="6"/>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A761" s="5"/>
       <c r="B761" s="6"/>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A762" s="5"/>
       <c r="B762" s="6"/>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A763" s="5"/>
       <c r="B763" s="6"/>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A764" s="5"/>
       <c r="B764" s="6"/>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A765" s="5"/>
       <c r="B765" s="6"/>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A766" s="5"/>
       <c r="B766" s="6"/>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A767" s="5"/>
       <c r="B767" s="6"/>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A768" s="5"/>
       <c r="B768" s="6"/>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A769" s="5"/>
       <c r="B769" s="6"/>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A770" s="5"/>
       <c r="B770" s="6"/>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A771" s="5"/>
       <c r="B771" s="6"/>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A772" s="5"/>
       <c r="B772" s="6"/>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A773" s="5"/>
       <c r="B773" s="6"/>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A774" s="5"/>
       <c r="B774" s="6"/>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A775" s="5"/>
       <c r="B775" s="6"/>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A776" s="5"/>
       <c r="B776" s="6"/>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A777" s="5"/>
       <c r="B777" s="6"/>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A778" s="5"/>
       <c r="B778" s="6"/>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A779" s="5"/>
       <c r="B779" s="6"/>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A780" s="5"/>
       <c r="B780" s="6"/>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A781" s="5"/>
       <c r="B781" s="6"/>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A782" s="5"/>
       <c r="B782" s="6"/>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A783" s="5"/>
       <c r="B783" s="6"/>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A784" s="5"/>
       <c r="B784" s="6"/>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A785" s="5"/>
       <c r="B785" s="6"/>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A786" s="5"/>
       <c r="B786" s="6"/>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A787" s="5"/>
       <c r="B787" s="6"/>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A788" s="5"/>
       <c r="B788" s="6"/>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A789" s="5"/>
       <c r="B789" s="6"/>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A790" s="5"/>
       <c r="B790" s="6"/>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A791" s="5"/>
       <c r="B791" s="6"/>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A792" s="5"/>
       <c r="B792" s="6"/>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A793" s="5"/>
       <c r="B793" s="6"/>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A794" s="5"/>
       <c r="B794" s="6"/>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A795" s="5"/>
       <c r="B795" s="6"/>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A796" s="5"/>
       <c r="B796" s="6"/>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A797" s="5"/>
       <c r="B797" s="6"/>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A798" s="5"/>
       <c r="B798" s="6"/>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A799" s="5"/>
       <c r="B799" s="6"/>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A800" s="5"/>
       <c r="B800" s="6"/>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A801" s="5"/>
       <c r="B801" s="6"/>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A802" s="5"/>
       <c r="B802" s="6"/>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A803" s="5"/>
       <c r="B803" s="6"/>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A804" s="5"/>
       <c r="B804" s="6"/>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A805" s="5"/>
       <c r="B805" s="6"/>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A806" s="5"/>
       <c r="B806" s="6"/>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A807" s="5"/>
       <c r="B807" s="6"/>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A808" s="5"/>
       <c r="B808" s="6"/>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A809" s="5"/>
       <c r="B809" s="6"/>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A810" s="5"/>
       <c r="B810" s="6"/>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A811" s="5"/>
       <c r="B811" s="6"/>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A812" s="5"/>
       <c r="B812" s="6"/>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A813" s="5"/>
       <c r="B813" s="6"/>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A814" s="5"/>
       <c r="B814" s="6"/>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A815" s="5"/>
       <c r="B815" s="6"/>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A816" s="5"/>
       <c r="B816" s="6"/>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A817" s="5"/>
       <c r="B817" s="6"/>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A818" s="5"/>
       <c r="B818" s="6"/>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A819" s="5"/>
       <c r="B819" s="6"/>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A820" s="5"/>
       <c r="B820" s="6"/>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A821" s="5"/>
       <c r="B821" s="6"/>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A822" s="5"/>
       <c r="B822" s="6"/>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A823" s="5"/>
       <c r="B823" s="6"/>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A824" s="5"/>
       <c r="B824" s="6"/>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A825" s="5"/>
       <c r="B825" s="6"/>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A826" s="5"/>
       <c r="B826" s="6"/>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A827" s="5"/>
       <c r="B827" s="6"/>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A828" s="5"/>
       <c r="B828" s="6"/>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A829" s="5"/>
       <c r="B829" s="6"/>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A830" s="5"/>
       <c r="B830" s="6"/>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A831" s="5"/>
       <c r="B831" s="6"/>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A832" s="5"/>
       <c r="B832" s="6"/>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A833" s="5"/>
       <c r="B833" s="6"/>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A834" s="5"/>
       <c r="B834" s="6"/>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A835" s="5"/>
       <c r="B835" s="6"/>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A836" s="5"/>
       <c r="B836" s="6"/>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A837" s="5"/>
       <c r="B837" s="6"/>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A838" s="5"/>
       <c r="B838" s="6"/>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A839" s="5"/>
       <c r="B839" s="6"/>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A840" s="5"/>
       <c r="B840" s="6"/>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A841" s="5"/>
       <c r="B841" s="6"/>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A842" s="5"/>
       <c r="B842" s="6"/>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A843" s="5"/>
       <c r="B843" s="6"/>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A844" s="5"/>
       <c r="B844" s="6"/>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A845" s="5"/>
       <c r="B845" s="6"/>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A846" s="5"/>
       <c r="B846" s="6"/>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A847" s="5"/>
       <c r="B847" s="6"/>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A848" s="5"/>
       <c r="B848" s="6"/>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A849" s="5"/>
       <c r="B849" s="6"/>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A850" s="5"/>
       <c r="B850" s="6"/>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A851" s="5"/>
       <c r="B851" s="6"/>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A852" s="5"/>
       <c r="B852" s="6"/>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A853" s="5"/>
       <c r="B853" s="6"/>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A854" s="5"/>
       <c r="B854" s="6"/>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A855" s="5"/>
       <c r="B855" s="6"/>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A856" s="5"/>
       <c r="B856" s="6"/>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A857" s="5"/>
       <c r="B857" s="6"/>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A858" s="5"/>
       <c r="B858" s="6"/>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A859" s="5"/>
       <c r="B859" s="6"/>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A860" s="5"/>
       <c r="B860" s="6"/>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A861" s="5"/>
       <c r="B861" s="6"/>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A862" s="5"/>
       <c r="B862" s="6"/>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A863" s="5"/>
       <c r="B863" s="6"/>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A864" s="5"/>
       <c r="B864" s="6"/>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A865" s="5"/>
       <c r="B865" s="6"/>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A866" s="5"/>
       <c r="B866" s="6"/>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A867" s="5"/>
       <c r="B867" s="6"/>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A868" s="5"/>
       <c r="B868" s="6"/>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A869" s="5"/>
       <c r="B869" s="6"/>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A870" s="5"/>
       <c r="B870" s="6"/>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A871" s="5"/>
       <c r="B871" s="6"/>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A872" s="5"/>
       <c r="B872" s="6"/>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A873" s="5"/>
       <c r="B873" s="6"/>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A874" s="5"/>
       <c r="B874" s="6"/>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A875" s="5"/>
       <c r="B875" s="6"/>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A876" s="5"/>
       <c r="B876" s="6"/>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A877" s="5"/>
       <c r="B877" s="6"/>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A878" s="5"/>
       <c r="B878" s="6"/>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A879" s="5"/>
       <c r="B879" s="6"/>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A880" s="5"/>
       <c r="B880" s="6"/>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A881" s="5"/>
       <c r="B881" s="6"/>
     </row>
@@ -8575,7 +8576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B00F043-555E-495A-9D00-07B3497D7EAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -8583,18 +8584,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -8602,7 +8603,7 @@
         <v>40179</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -8610,7 +8611,7 @@
         <v>43830</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -8626,21 +8627,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBD8DD8-FEA5-4D0F-A5C5-448514959D37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="27.3984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" style="17" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
@@ -8649,12 +8650,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" ht="22.9" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A3" s="40" t="s">
         <v>25</v>
       </c>
@@ -8698,7 +8699,7 @@
       <c r="AK3" s="48"/>
       <c r="AL3" s="49"/>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A4" s="40" t="s">
         <v>27</v>
       </c>
@@ -8742,7 +8743,7 @@
       <c r="AK4" s="43"/>
       <c r="AL4" s="44"/>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>28</v>
       </c>
@@ -8786,7 +8787,7 @@
       <c r="AK5" s="43"/>
       <c r="AL5" s="44"/>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>30</v>
       </c>
@@ -8830,7 +8831,7 @@
       <c r="AK6" s="43"/>
       <c r="AL6" s="44"/>
     </row>
-    <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" ht="97.5" x14ac:dyDescent="0.35">
       <c r="A7" s="45" t="s">
         <v>32</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
         <v>69</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A9" s="22" t="s">
         <v>71</v>
       </c>
@@ -9176,7 +9177,7 @@
         <v>3498.3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
         <v>72</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A11" s="22" t="s">
         <v>73</v>
       </c>
@@ -9408,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A12" s="25" t="s">
         <v>114</v>
       </c>
@@ -9426,9 +9427,9 @@
     <mergeCell ref="C5:AL5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{397B01B7-4E3E-44DE-8E1F-B21E2B18E3B2}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[VAL]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{00D0D898-A8CE-4F41-A8EA-2B238E3E9259}"/>
-    <hyperlink ref="A12" r:id="rId3" display="https://stats-3.oecd.org/index.aspx?DatasetCode=IOTSI4_2018" xr:uid="{CB7B46F7-F63F-4362-9E3C-796B0BC5907C}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[VAL]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A12" r:id="rId3" display="https://stats-3.oecd.org/index.aspx?DatasetCode=IOTSI4_2018"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -9436,938 +9437,938 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEE7CE8-DED7-4D15-8E70-0480E590D8FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="17.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.86328125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="34">
         <v>1960</v>
       </c>
       <c r="B5" s="36">
-        <v>37029883875.457298</v>
+        <v>148773240565.12</v>
       </c>
       <c r="C5" s="35">
-        <v>33254865536.643795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>156645281002.6239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="34">
         <v>1961</v>
       </c>
       <c r="B6" s="36">
-        <v>39232435784.094589</v>
+        <v>154311685268.91101</v>
       </c>
       <c r="C6" s="35">
-        <v>35232877884.874702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162476781503.97308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="34">
         <v>1962</v>
       </c>
       <c r="B7" s="36">
-        <v>42161481858.701363</v>
+        <v>158834757876.73599</v>
       </c>
       <c r="C7" s="35">
-        <v>37863321817.38298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167239183512.26898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="34">
         <v>1963</v>
       </c>
       <c r="B8" s="36">
-        <v>48421923458.741257</v>
+        <v>168355874365.04401</v>
       </c>
       <c r="C8" s="35">
-        <v>43485541544.280968</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177264090962.72476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="34">
         <v>1964</v>
       </c>
       <c r="B9" s="36">
-        <v>56480289940.826149</v>
+        <v>180903353709.483</v>
       </c>
       <c r="C9" s="35">
-        <v>50722396369.643852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190475495246.97803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="34">
         <v>1965</v>
       </c>
       <c r="B10" s="36">
-        <v>59554854574.794205</v>
+        <v>176135157184.686</v>
       </c>
       <c r="C10" s="35">
-        <v>53483523945.150337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185454999076.66287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="34">
         <v>1966</v>
       </c>
       <c r="B11" s="36">
-        <v>45865462033.909996</v>
+        <v>176037703768.97501</v>
       </c>
       <c r="C11" s="35">
-        <v>41189699050.734116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185352389107.08279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="34">
         <v>1967</v>
       </c>
       <c r="B12" s="36">
-        <v>50134942203.446663</v>
+        <v>189814349385.37701</v>
       </c>
       <c r="C12" s="35">
-        <v>45023926277.231339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>199857998554.43671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="34">
         <v>1968</v>
       </c>
       <c r="B13" s="36">
-        <v>53085455870.82267</v>
+        <v>196245125108.44501</v>
       </c>
       <c r="C13" s="35">
-        <v>47673649284.806046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>206629045998.03867</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="34">
         <v>1969</v>
       </c>
       <c r="B14" s="36">
-        <v>58447995016.849342</v>
+        <v>209078968136.59601</v>
       </c>
       <c r="C14" s="35">
-        <v>52489503388.909775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>220141966331.37186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="34">
         <v>1970</v>
       </c>
       <c r="B15" s="36">
-        <v>62422483054.517334</v>
+        <v>219861650853.23199</v>
       </c>
       <c r="C15" s="35">
-        <v>56058811510.808823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>231495193280.61115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="34">
         <v>1971</v>
       </c>
       <c r="B16" s="36">
-        <v>67350988020.904106</v>
+        <v>223473824717.617</v>
       </c>
       <c r="C16" s="35">
-        <v>60484879129.738113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>235298498148.25806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="34">
         <v>1972</v>
       </c>
       <c r="B17" s="36">
-        <v>71463193830.406448</v>
+        <v>222237341112.634</v>
       </c>
       <c r="C17" s="35">
-        <v>64177865359.831093</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>233996588469.99896</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="34">
         <v>1973</v>
       </c>
       <c r="B18" s="36">
-        <v>85515269585.522064</v>
+        <v>229561219659.35901</v>
       </c>
       <c r="C18" s="35">
-        <v>76797399661.336685</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>241707995498.7291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="34">
         <v>1974</v>
       </c>
       <c r="B19" s="36">
-        <v>99525899115.77562</v>
+        <v>232282292035.66101</v>
       </c>
       <c r="C19" s="35">
-        <v>89379712981.015137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>244573048013.51743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="34">
         <v>1975</v>
       </c>
       <c r="B20" s="36">
-        <v>98472796457.113968</v>
+        <v>253535917382.89801</v>
       </c>
       <c r="C20" s="35">
-        <v>88433969067.049301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>266951266718.68274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="34">
         <v>1976</v>
       </c>
       <c r="B21" s="36">
-        <v>102717164465.89397</v>
+        <v>257752482445.013</v>
       </c>
       <c r="C21" s="35">
-        <v>92245644196.648071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>271390942943.46552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="34">
         <v>1977</v>
       </c>
       <c r="B22" s="36">
-        <v>121487322474.29842</v>
+        <v>276451818260.547</v>
       </c>
       <c r="C22" s="35">
-        <v>109102274986.26703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>291079716961.29449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="34">
         <v>1978</v>
       </c>
       <c r="B23" s="36">
-        <v>137300295308.0378</v>
+        <v>292244217089.30902</v>
       </c>
       <c r="C23" s="35">
-        <v>123303191389.06281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>307707739197.28333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="34">
         <v>1979</v>
       </c>
       <c r="B24" s="36">
-        <v>152991653792.86441</v>
+        <v>276935931059.83502</v>
       </c>
       <c r="C24" s="35">
-        <v>137394891440.16753</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>291589445627.50745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="34">
         <v>1980</v>
       </c>
       <c r="B25" s="36">
-        <v>186325345089.75394</v>
+        <v>295589841122.92603</v>
       </c>
       <c r="C25" s="35">
-        <v>167330373432.1257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>311230390279.45612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="34">
         <v>1981</v>
       </c>
       <c r="B26" s="36">
-        <v>193490610032.09958</v>
+        <v>313343568872.08801</v>
       </c>
       <c r="C26" s="35">
-        <v>173765174118.8775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>329923521258.84259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="34">
         <v>1982</v>
       </c>
       <c r="B27" s="36">
-        <v>200715145360.91833</v>
+        <v>324234555451.75598</v>
       </c>
       <c r="C27" s="35">
-        <v>180253202861.62585</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>341390782754.84491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="34">
         <v>1983</v>
       </c>
       <c r="B28" s="36">
-        <v>218262273410.09882</v>
+        <v>347867664947.46503</v>
       </c>
       <c r="C28" s="35">
-        <v>196011485706.70166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>366274391284.57043</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="34">
         <v>1984</v>
       </c>
       <c r="B29" s="36">
-        <v>212158234164.06015</v>
+        <v>361158776510.80499</v>
       </c>
       <c r="C29" s="35">
-        <v>190529723866.99063</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>380268775609.11768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="34">
         <v>1985</v>
       </c>
       <c r="B30" s="36">
-        <v>232511877842.0408</v>
+        <v>380135139299.92401</v>
       </c>
       <c r="C30" s="35">
-        <v>208808411587.65656</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>400249234932.43365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="34">
         <v>1986</v>
       </c>
       <c r="B31" s="36">
-        <v>248985994044.19974</v>
+        <v>398292538163.164</v>
       </c>
       <c r="C31" s="35">
-        <v>223603070976.28461</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>419367396480.87408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="34">
         <v>1987</v>
       </c>
       <c r="B32" s="36">
-        <v>279033584092.15869</v>
+        <v>414086253764.64398</v>
       </c>
       <c r="C32" s="35">
-        <v>250587453916.98672</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>435996805163.99304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="34">
         <v>1988</v>
       </c>
       <c r="B33" s="36">
-        <v>296588994812.05939</v>
+        <v>453953579378.03601</v>
       </c>
       <c r="C33" s="35">
-        <v>266353175054.38913</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>477973631102.65619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="34">
         <v>1989</v>
       </c>
       <c r="B34" s="36">
-        <v>296042354986.12561</v>
+        <v>480951757294.59497</v>
       </c>
       <c r="C34" s="35">
-        <v>265862262526.29312</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>506400363962.90509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="34">
         <v>1990</v>
       </c>
       <c r="B35" s="36">
-        <v>320979026419.63342</v>
+        <v>507565004254.755</v>
       </c>
       <c r="C35" s="35">
-        <v>288256760392.9848</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>534421798009.98926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="34">
         <v>1991</v>
       </c>
       <c r="B36" s="36">
-        <v>270105341879.22638</v>
+        <v>512929110762.33801</v>
       </c>
       <c r="C36" s="35">
-        <v>242569403002.53503</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>540069735555.85828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="34">
         <v>1992</v>
       </c>
       <c r="B37" s="36">
-        <v>288208430383.96442</v>
+        <v>541049915924.76202</v>
       </c>
       <c r="C37" s="35">
-        <v>258826968812.02518</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>569678497252.21875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="34">
         <v>1993</v>
       </c>
       <c r="B38" s="36">
-        <v>279296022987.91937</v>
+        <v>566753986666.96497</v>
       </c>
       <c r="C38" s="35">
-        <v>250823138431.13373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>596742647828.15039</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="34">
         <v>1994</v>
       </c>
       <c r="B39" s="36">
-        <v>327275583539.55859</v>
+        <v>604493704287.74194</v>
       </c>
       <c r="C39" s="35">
-        <v>293911413836.43481</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>636479287624.46265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="34">
         <v>1995</v>
       </c>
       <c r="B40" s="36">
-        <v>360281952716.79675</v>
+        <v>650281030594.28796</v>
       </c>
       <c r="C40" s="35">
-        <v>323552942622.57721</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>684689359330.92847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="34">
         <v>1996</v>
       </c>
       <c r="B41" s="36">
-        <v>392897054348.07104</v>
+        <v>699374141678.85803</v>
       </c>
       <c r="C41" s="35">
-        <v>352843091704.86633</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>736380134848.91833</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="34">
         <v>1997</v>
       </c>
       <c r="B42" s="36">
-        <v>415867753863.87433</v>
+        <v>727697541481.73096</v>
       </c>
       <c r="C42" s="35">
-        <v>373472039023.46643</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>766202211078.60608</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="34">
         <v>1998</v>
       </c>
       <c r="B43" s="36">
-        <v>421351477504.74298</v>
+        <v>772701383365.47302</v>
       </c>
       <c r="C43" s="35">
-        <v>378396723446.74292</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>813587341840.68506</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="34">
         <v>1999</v>
       </c>
       <c r="B44" s="36">
-        <v>458820417337.80707</v>
+        <v>841052658954.87305</v>
       </c>
       <c r="C44" s="35">
-        <v>412045885300.44733</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>885555289375.59668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="34">
         <v>2000</v>
       </c>
       <c r="B45" s="36">
-        <v>468394937262.36993</v>
+        <v>873357417209.46899</v>
       </c>
       <c r="C45" s="35">
-        <v>420644329026.06445</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>919569389729.20178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="34">
         <v>2001</v>
       </c>
       <c r="B46" s="36">
-        <v>485441014538.63824</v>
+        <v>915487884378.979</v>
       </c>
       <c r="C46" s="35">
-        <v>435952640811.65039</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>963929106862.94946</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="34">
         <v>2002</v>
       </c>
       <c r="B47" s="36">
-        <v>514937948870.08032</v>
+        <v>950312817570.93994</v>
       </c>
       <c r="C47" s="35">
-        <v>462442504734.37933</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1000596732203.5734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="34">
         <v>2003</v>
       </c>
       <c r="B48" s="36">
-        <v>607699285433.87183</v>
+        <v>1025011030242.9</v>
       </c>
       <c r="C48" s="35">
-        <v>545747269739.94202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1079247452386.4896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="34">
         <v>2004</v>
       </c>
       <c r="B49" s="36">
-        <v>709148514804.65955</v>
+        <v>1106222004443.9199</v>
       </c>
       <c r="C49" s="35">
-        <v>636854238718.52124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1164755543935.032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="34">
         <v>2005</v>
       </c>
       <c r="B50" s="36">
-        <v>820381595512.90161</v>
+        <v>1193872737485.77</v>
       </c>
       <c r="C50" s="35">
-        <v>736747642506.12781</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1257044141368.7671</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="34">
         <v>2006</v>
       </c>
       <c r="B51" s="36">
-        <v>940259888792.14136</v>
+        <v>1290107626116.8501</v>
       </c>
       <c r="C51" s="35">
-        <v>844404921075.28015</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1358371107929.4863</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="34">
         <v>2007</v>
       </c>
       <c r="B52" s="36">
-        <v>1216735441524.8618</v>
+        <v>1388940385493.75</v>
       </c>
       <c r="C52" s="35">
-        <v>1092695122611.386</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1462433406405.0154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="34">
         <v>2008</v>
       </c>
       <c r="B53" s="36">
-        <v>1198895582137.5146</v>
+        <v>1431812781420.8601</v>
       </c>
       <c r="C53" s="35">
-        <v>1076673950978.3832</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1507574309982.4858</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="34">
         <v>2009</v>
       </c>
       <c r="B54" s="36">
-        <v>1341886602798.6855</v>
+        <v>1544380310593.3501</v>
       </c>
       <c r="C54" s="35">
-        <v>1205087725675.2656</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1626098126308.6987</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="34">
         <v>2010</v>
       </c>
       <c r="B55" s="36">
-        <v>1675615335600.5637</v>
+        <v>1675615335600.5601</v>
       </c>
       <c r="C55" s="35">
-        <v>1504794421282.7178</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1764277191922.6023</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="34">
         <v>2011</v>
       </c>
       <c r="B56" s="36">
-        <v>1823050405350.4167</v>
+        <v>1763440111904.05</v>
       </c>
       <c r="C56" s="35">
-        <v>1637199195664.5957</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1856749041771.3728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="34">
         <v>2012</v>
       </c>
       <c r="B57" s="36">
-        <v>1827637859135.6963</v>
+        <v>1859659734290.5601</v>
       </c>
       <c r="C57" s="35">
-        <v>1641318980627.9548</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1958059934304.522</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="34">
         <v>2013</v>
       </c>
       <c r="B58" s="36">
-        <v>1856722121394.5347</v>
+        <v>1978419583617.95</v>
       </c>
       <c r="C58" s="35">
-        <v>1667438242408.6052</v>
+        <v>2083103725103.5496</v>
       </c>
       <c r="D58" s="27"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="34">
         <v>2014</v>
       </c>
       <c r="B59" s="36">
-        <v>2039127446298.5498</v>
+        <v>2125024977747.6799</v>
       </c>
       <c r="C59" s="35">
-        <v>1831248222835.554</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2237466452383.7949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="34">
         <v>2015</v>
       </c>
       <c r="B60" s="36">
-        <v>2103587817041.7832</v>
+        <v>2294947360719.6401</v>
       </c>
       <c r="C60" s="35">
-        <v>1889137169198.9312</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2416379940643.9863</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="34">
         <v>2016</v>
       </c>
       <c r="B61" s="36">
-        <v>2294797978291.9849</v>
+        <v>2484425233783.7998</v>
       </c>
       <c r="C61" s="35">
-        <v>2060854375307.4233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2615883658901.1895</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="34">
         <v>2017</v>
       </c>
       <c r="B62" s="36">
-        <v>2652754685834.5913</v>
+        <v>2659423696537.1602</v>
       </c>
       <c r="C62" s="35">
-        <v>2382319120303.7944</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2800141817619.1104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="34">
         <v>2018</v>
       </c>
       <c r="B63" s="36">
-        <v>2713165057513.3467</v>
+        <v>2822169439126.6099</v>
       </c>
       <c r="C63" s="35">
-        <v>2436570945504.0122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2971498927829.708</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="34">
         <v>2019</v>
       </c>
       <c r="B64" s="36">
-        <v>2875142314811.8477</v>
+        <v>2940156656485.46</v>
       </c>
       <c r="C64" s="35">
-        <v>2582035401443.7754</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3095729204374.6685</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="37">
         <v>2020</v>
       </c>
       <c r="C65" s="38">
-        <v>2781383385961.4736</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3334737305177.4668</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="37">
         <v>2021</v>
       </c>
       <c r="C66" s="38">
-        <v>2984552111455.7139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3578326280207.1709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="37">
         <v>2022</v>
       </c>
       <c r="C67" s="38">
-        <v>3191138824694.7207</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3826013248810.376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="37">
         <v>2023</v>
       </c>
       <c r="C68" s="38">
-        <v>3401383723524.8545</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4078086195995.8813</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" s="37">
         <v>2024</v>
       </c>
       <c r="C69" s="38">
-        <v>3616355274228.2031</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4335826158526.9712</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="37">
         <v>2025</v>
       </c>
       <c r="C70" s="38">
-        <v>3837063964296.3535</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4600444659544.1143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="37">
         <v>2026</v>
       </c>
       <c r="C71" s="38">
-        <v>4063794165892.2388</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4872282646816.3506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72" s="37">
         <v>2027</v>
       </c>
       <c r="C72" s="38">
-        <v>4297009709339.8657</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5151896229326.1904</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="37">
         <v>2028</v>
       </c>
       <c r="C73" s="38">
-        <v>4536884531010.7373</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5439493947942.0752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74" s="37">
         <v>2029</v>
       </c>
       <c r="C74" s="38">
-        <v>4783506979537.9971</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5735181728184.4834</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="37">
         <v>2030</v>
       </c>
       <c r="C75" s="38">
-        <v>5036890859395.5742</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6038976120915.9902</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76" s="37">
         <v>2031</v>
       </c>
       <c r="C76" s="38">
-        <v>5297025127004.3252</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6350863885446.5352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="37">
         <v>2032</v>
       </c>
       <c r="C77" s="38">
-        <v>5563697193465.7471</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6670590138492.4668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78" s="37">
         <v>2033</v>
       </c>
       <c r="C78" s="38">
-        <v>5836931906832.9121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6998184671606.4209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="37">
         <v>2034</v>
       </c>
       <c r="C79" s="38">
-        <v>6116643679367.4629</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7333544869440.4346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" s="37">
         <v>2035</v>
       </c>
       <c r="C80" s="38">
-        <v>6402664096487.4658</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7676468811471.0947</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81" s="37">
         <v>2036</v>
       </c>
       <c r="C81" s="38">
-        <v>6694838548084.9199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8026771128037.5654</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82" s="37">
         <v>2037</v>
       </c>
       <c r="C82" s="38">
-        <v>6993194643107.6826</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8384484920864.9961</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83" s="37">
         <v>2038</v>
       </c>
       <c r="C83" s="38">
-        <v>7297801403925.3984</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8749692944266.2607</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84" s="37">
         <v>2039</v>
       </c>
       <c r="C84" s="38">
-        <v>7608661591432.8525</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9122398508413.873</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" s="37">
         <v>2040</v>
       </c>
       <c r="C85" s="38">
-        <v>7925719987734.3281</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9502535409857.5332</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" s="37">
         <v>2041</v>
       </c>
       <c r="C86" s="38">
-        <v>8248926896723.6846</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9890044065491.9766</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" s="37">
         <v>2042</v>
       </c>
       <c r="C87" s="38">
-        <v>8578450732982.8516</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10285126395840.611</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" s="37">
         <v>2043</v>
       </c>
       <c r="C88" s="38">
-        <v>8914448867514.6172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10687971080736.789</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" s="37">
         <v>2044</v>
       </c>
       <c r="C89" s="38">
-        <v>9256940626582.4805</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11098601291388.115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90" s="37">
         <v>2045</v>
       </c>
       <c r="C90" s="38">
-        <v>9605796248131.5117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11516861449686.387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" s="37">
         <v>2046</v>
       </c>
       <c r="C91" s="38">
-        <v>9960866643843.2813</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11942572806315.797</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" s="37">
         <v>2047</v>
       </c>
       <c r="C92" s="38">
-        <v>10322253966824.863</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12375857837659.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93" s="37">
         <v>2048</v>
       </c>
       <c r="C93" s="38">
-        <v>10690010674077.184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12816779436994.98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" s="37">
         <v>2049</v>
       </c>
       <c r="C94" s="38">
-        <v>11064015286229.67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13265191956731.877</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" s="37">
         <v>2050</v>
       </c>
       <c r="C95" s="38">
-        <v>11444013800962.033</v>
+        <v>13720790860998.717</v>
       </c>
     </row>
   </sheetData>
@@ -10376,46 +10377,46 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8C27DF-B76C-4128-BEDA-C952593F02B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:BA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.265625" customWidth="1"/>
+    <col min="2" max="2" width="15.265625" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.265625" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" customWidth="1"/>
+    <col min="8" max="17" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="23" max="34" width="13" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" customWidth="1"/>
-    <col min="37" max="37" width="12.85546875" customWidth="1"/>
+    <col min="36" max="36" width="11.73046875" customWidth="1"/>
+    <col min="37" max="37" width="12.86328125" customWidth="1"/>
     <col min="38" max="40" width="13" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
     <col min="42" max="47" width="13" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="13" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.86328125" bestFit="1" customWidth="1"/>
     <col min="52" max="53" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53" s="34" customFormat="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" s="34" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="33" t="s">
         <v>116</v>
       </c>
@@ -10573,7 +10574,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>117</v>
       </c>
@@ -10582,160 +10583,160 @@
       </c>
       <c r="C4" s="10">
         <f t="array" ref="C4:BA4">TRANSPOSE(BGDP_calc!$C$45:$C$95)</f>
-        <v>420644329026.06445</v>
+        <v>919569389729.20178</v>
       </c>
       <c r="D4" s="10">
-        <v>435952640811.65039</v>
+        <v>963929106862.94946</v>
       </c>
       <c r="E4" s="10">
-        <v>462442504734.37933</v>
+        <v>1000596732203.5734</v>
       </c>
       <c r="F4" s="10">
-        <v>545747269739.94202</v>
+        <v>1079247452386.4896</v>
       </c>
       <c r="G4" s="10">
-        <v>636854238718.52124</v>
+        <v>1164755543935.032</v>
       </c>
       <c r="H4" s="10">
-        <v>736747642506.12781</v>
+        <v>1257044141368.7671</v>
       </c>
       <c r="I4" s="10">
-        <v>844404921075.28015</v>
+        <v>1358371107929.4863</v>
       </c>
       <c r="J4" s="10">
-        <v>1092695122611.386</v>
+        <v>1462433406405.0154</v>
       </c>
       <c r="K4" s="10">
-        <v>1076673950978.3832</v>
+        <v>1507574309982.4858</v>
       </c>
       <c r="L4" s="10">
-        <v>1205087725675.2656</v>
+        <v>1626098126308.6987</v>
       </c>
       <c r="M4" s="10">
-        <v>1504794421282.7178</v>
+        <v>1764277191922.6023</v>
       </c>
       <c r="N4" s="10">
-        <v>1637199195664.5957</v>
+        <v>1856749041771.3728</v>
       </c>
       <c r="O4" s="10">
-        <v>1641318980627.9548</v>
+        <v>1958059934304.522</v>
       </c>
       <c r="P4" s="10">
-        <v>1667438242408.6052</v>
+        <v>2083103725103.5496</v>
       </c>
       <c r="Q4" s="10">
-        <v>1831248222835.554</v>
+        <v>2237466452383.7949</v>
       </c>
       <c r="R4" s="10">
-        <v>1889137169198.9312</v>
+        <v>2416379940643.9863</v>
       </c>
       <c r="S4" s="10">
-        <v>2060854375307.4233</v>
+        <v>2615883658901.1895</v>
       </c>
       <c r="T4" s="10">
-        <v>2382319120303.7944</v>
+        <v>2800141817619.1104</v>
       </c>
       <c r="U4" s="10">
-        <v>2436570945504.0122</v>
+        <v>2971498927829.708</v>
       </c>
       <c r="V4" s="10">
-        <v>2582035401443.7754</v>
+        <v>3095729204374.6685</v>
       </c>
       <c r="W4">
-        <v>2781383385961.4736</v>
+        <v>3334737305177.4668</v>
       </c>
       <c r="X4">
-        <v>2984552111455.7139</v>
+        <v>3578326280207.1709</v>
       </c>
       <c r="Y4">
-        <v>3191138824694.7207</v>
+        <v>3826013248810.376</v>
       </c>
       <c r="Z4">
-        <v>3401383723524.8545</v>
+        <v>4078086195995.8813</v>
       </c>
       <c r="AA4">
-        <v>3616355274228.2031</v>
+        <v>4335826158526.9712</v>
       </c>
       <c r="AB4">
-        <v>3837063964296.3535</v>
+        <v>4600444659544.1143</v>
       </c>
       <c r="AC4">
-        <v>4063794165892.2388</v>
+        <v>4872282646816.3506</v>
       </c>
       <c r="AD4">
-        <v>4297009709339.8657</v>
+        <v>5151896229326.1904</v>
       </c>
       <c r="AE4">
-        <v>4536884531010.7373</v>
+        <v>5439493947942.0752</v>
       </c>
       <c r="AF4">
-        <v>4783506979537.9971</v>
+        <v>5735181728184.4834</v>
       </c>
       <c r="AG4">
-        <v>5036890859395.5742</v>
+        <v>6038976120915.9902</v>
       </c>
       <c r="AH4">
-        <v>5297025127004.3252</v>
+        <v>6350863885446.5352</v>
       </c>
       <c r="AI4">
-        <v>5563697193465.7471</v>
+        <v>6670590138492.4668</v>
       </c>
       <c r="AJ4">
-        <v>5836931906832.9121</v>
+        <v>6998184671606.4209</v>
       </c>
       <c r="AK4">
-        <v>6116643679367.4629</v>
+        <v>7333544869440.4346</v>
       </c>
       <c r="AL4">
-        <v>6402664096487.4658</v>
+        <v>7676468811471.0947</v>
       </c>
       <c r="AM4">
-        <v>6694838548084.9199</v>
+        <v>8026771128037.5654</v>
       </c>
       <c r="AN4">
-        <v>6993194643107.6826</v>
+        <v>8384484920864.9961</v>
       </c>
       <c r="AO4">
-        <v>7297801403925.3984</v>
+        <v>8749692944266.2607</v>
       </c>
       <c r="AP4">
-        <v>7608661591432.8525</v>
+        <v>9122398508413.873</v>
       </c>
       <c r="AQ4">
-        <v>7925719987734.3281</v>
+        <v>9502535409857.5332</v>
       </c>
       <c r="AR4">
-        <v>8248926896723.6846</v>
+        <v>9890044065491.9766</v>
       </c>
       <c r="AS4">
-        <v>8578450732982.8516</v>
+        <v>10285126395840.611</v>
       </c>
       <c r="AT4">
-        <v>8914448867514.6172</v>
+        <v>10687971080736.789</v>
       </c>
       <c r="AU4">
-        <v>9256940626582.4805</v>
+        <v>11098601291388.115</v>
       </c>
       <c r="AV4">
-        <v>9605796248131.5117</v>
+        <v>11516861449686.387</v>
       </c>
       <c r="AW4">
-        <v>9960866643843.2813</v>
+        <v>11942572806315.797</v>
       </c>
       <c r="AX4">
-        <v>10322253966824.863</v>
+        <v>12375857837659.4</v>
       </c>
       <c r="AY4">
-        <v>10690010674077.184</v>
+        <v>12816779436994.98</v>
       </c>
       <c r="AZ4">
-        <v>11064015286229.67</v>
+        <v>13265191956731.877</v>
       </c>
       <c r="BA4">
-        <v>11444013800962.033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+        <v>13720790860998.717</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -10894,216 +10895,216 @@
         <v>1658978000</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="39">
         <f>C4/C5</f>
-        <v>399.45298392758474</v>
+        <v>873.24304955276637</v>
       </c>
       <c r="D6" s="39">
         <f t="shared" ref="D6:BA6" si="0">D4/D5</f>
-        <v>406.87041619880273</v>
+        <v>899.6257854185418</v>
       </c>
       <c r="E6" s="39">
         <f t="shared" si="0"/>
-        <v>424.33426947059542</v>
+        <v>918.14112899969166</v>
       </c>
       <c r="F6" s="39">
         <f t="shared" si="0"/>
-        <v>492.53930821776783</v>
+        <v>974.02556653656382</v>
       </c>
       <c r="G6" s="39">
         <f t="shared" si="0"/>
-        <v>565.52171747450063</v>
+        <v>1034.2940591390447</v>
       </c>
       <c r="H6" s="39">
         <f t="shared" si="0"/>
-        <v>643.94337689669408</v>
+        <v>1098.7008340436955</v>
       </c>
       <c r="I6" s="39">
         <f t="shared" si="0"/>
-        <v>726.69631032338248</v>
+        <v>1169.0164843251064</v>
       </c>
       <c r="J6" s="39">
         <f t="shared" si="0"/>
-        <v>926.26303317127349</v>
+        <v>1239.685228566236</v>
       </c>
       <c r="K6" s="39">
         <f t="shared" si="0"/>
-        <v>899.36660704060921</v>
+        <v>1259.3060237023958</v>
       </c>
       <c r="L6" s="39">
         <f t="shared" si="0"/>
-        <v>992.43792128065422</v>
+        <v>1339.1568181211746</v>
       </c>
       <c r="M6" s="39">
         <f t="shared" si="0"/>
-        <v>1222.4354389021994</v>
+        <v>1433.2289733069438</v>
       </c>
       <c r="N6" s="39">
         <f t="shared" si="0"/>
-        <v>1312.661884035901</v>
+        <v>1488.6909924018662</v>
       </c>
       <c r="O6" s="39">
         <f t="shared" si="0"/>
-        <v>1299.4722151889471</v>
+        <v>1550.2437431936225</v>
       </c>
       <c r="P6" s="39">
         <f t="shared" si="0"/>
-        <v>1304.151048169223</v>
+        <v>1629.2548877940903</v>
       </c>
       <c r="Q6" s="39">
         <f t="shared" si="0"/>
-        <v>1415.3379979782824</v>
+        <v>1729.2965802074264</v>
       </c>
       <c r="R6" s="39">
         <f t="shared" si="0"/>
-        <v>1443.1316034797367</v>
+        <v>1845.8978602578225</v>
       </c>
       <c r="S6" s="39">
         <f t="shared" si="0"/>
-        <v>1556.3351140938692</v>
+        <v>1975.4872743616152</v>
       </c>
       <c r="T6" s="39">
         <f t="shared" si="0"/>
-        <v>1778.9386940544173</v>
+        <v>2090.9376018303069</v>
       </c>
       <c r="U6" s="39">
         <f t="shared" si="0"/>
-        <v>1799.466302257234</v>
+        <v>2194.5234952791384</v>
       </c>
       <c r="V6" s="39">
         <f t="shared" si="0"/>
-        <v>1886.435096741506</v>
+        <v>2261.7397956180571</v>
       </c>
       <c r="W6" s="39">
         <f t="shared" si="0"/>
-        <v>2010.8353149451298</v>
+        <v>2410.8893341209769</v>
       </c>
       <c r="X6" s="39">
         <f t="shared" si="0"/>
-        <v>2135.7542501130392</v>
+        <v>2560.660787898275</v>
       </c>
       <c r="Y6" s="39">
         <f t="shared" si="0"/>
-        <v>2260.9500569957954</v>
+        <v>2710.7641967885957</v>
       </c>
       <c r="Z6" s="39">
         <f t="shared" si="0"/>
-        <v>2386.6713189168181</v>
+        <v>2861.4975995615091</v>
       </c>
       <c r="AA6" s="39">
         <f t="shared" si="0"/>
-        <v>2513.7406459791423</v>
+        <v>3013.8472639182082</v>
       </c>
       <c r="AB6" s="39">
         <f t="shared" si="0"/>
-        <v>2642.9172886726697</v>
+        <v>3168.7234926042352</v>
       </c>
       <c r="AC6" s="39">
         <f t="shared" si="0"/>
-        <v>2774.4398378210249</v>
+        <v>3326.4123438898132</v>
       </c>
       <c r="AD6" s="39">
         <f t="shared" si="0"/>
-        <v>2908.6677082023743</v>
+        <v>3487.344737825314</v>
       </c>
       <c r="AE6" s="39">
         <f t="shared" si="0"/>
-        <v>3045.7781506753563</v>
+        <v>3651.7331891807844</v>
       </c>
       <c r="AF6" s="39">
         <f t="shared" si="0"/>
-        <v>3185.8994630153788</v>
+        <v>3819.7315204677066</v>
       </c>
       <c r="AG6" s="39">
         <f t="shared" si="0"/>
-        <v>3329.1082591007671</v>
+        <v>3991.4315878319944</v>
       </c>
       <c r="AH6" s="39">
         <f t="shared" si="0"/>
-        <v>3475.4554924693302</v>
+        <v>4166.8944819755707</v>
       </c>
       <c r="AI6" s="39">
         <f t="shared" si="0"/>
-        <v>3624.8677857626594</v>
+        <v>4346.0322271753921</v>
       </c>
       <c r="AJ6" s="39">
         <f t="shared" si="0"/>
-        <v>3777.4506840733729</v>
+        <v>4528.9713666327689</v>
       </c>
       <c r="AK6" s="39">
         <f t="shared" si="0"/>
-        <v>3933.2597346084408</v>
+        <v>4715.7784986254555</v>
       </c>
       <c r="AL6" s="39">
         <f t="shared" si="0"/>
-        <v>4092.2835644857473</v>
+        <v>4906.4399876458674</v>
       </c>
       <c r="AM6" s="39">
         <f t="shared" si="0"/>
-        <v>4254.5215616885043</v>
+        <v>5100.9550999169824</v>
       </c>
       <c r="AN6" s="39">
         <f t="shared" si="0"/>
-        <v>4420.0663042736751</v>
+        <v>5299.4348318234624</v>
       </c>
       <c r="AO6" s="39">
         <f t="shared" si="0"/>
-        <v>4588.9983059139186</v>
+        <v>5501.9757151664053</v>
       </c>
       <c r="AP6" s="39">
         <f t="shared" si="0"/>
-        <v>4761.3324260176259</v>
+        <v>5708.5955656211836</v>
       </c>
       <c r="AQ6" s="39">
         <f t="shared" si="0"/>
-        <v>4937.0482234061028</v>
+        <v>5919.2698752535471</v>
       </c>
       <c r="AR6" s="39">
         <f t="shared" si="0"/>
-        <v>5116.1846883519929</v>
+        <v>6134.0453914185628</v>
       </c>
       <c r="AS6" s="39">
         <f t="shared" si="0"/>
-        <v>5298.9183639957182</v>
+        <v>6353.1337803681072</v>
       </c>
       <c r="AT6" s="39">
         <f t="shared" si="0"/>
-        <v>5485.3994851556572</v>
+        <v>6576.7151660131503</v>
       </c>
       <c r="AU6" s="39">
         <f t="shared" si="0"/>
-        <v>5675.6783797894277</v>
+        <v>6804.8498890167621</v>
       </c>
       <c r="AV6" s="39">
         <f t="shared" si="0"/>
-        <v>5869.7340220394744</v>
+        <v>7037.5127404444538</v>
       </c>
       <c r="AW6" s="39">
         <f t="shared" si="0"/>
-        <v>6067.5317490351463</v>
+        <v>7274.6621612761883</v>
       </c>
       <c r="AX6" s="39">
         <f t="shared" si="0"/>
-        <v>6269.217434108552</v>
+        <v>7516.4730462225889</v>
       </c>
       <c r="AY6" s="39">
         <f t="shared" si="0"/>
-        <v>6474.8937149845387</v>
+        <v>7763.068452698787</v>
       </c>
       <c r="AZ6" s="39">
         <f t="shared" si="0"/>
-        <v>6684.5876400729539</v>
+        <v>8014.4808103733476</v>
       </c>
       <c r="BA6" s="39">
         <f t="shared" si="0"/>
-        <v>6898.2312007525315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+        <v>8270.6285803661758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -11126,213 +11127,213 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27">
         <f>(D6-C6)/C6</f>
-        <v>1.8568974496790007E-2</v>
+        <v>3.0212362845930939E-2</v>
       </c>
       <c r="E8" s="27">
         <f t="shared" ref="E8:BA8" si="1">(E6-D6)/D6</f>
-        <v>4.2922396361350583E-2</v>
+        <v>2.0581161502096993E-2</v>
       </c>
       <c r="F8" s="27">
         <f t="shared" si="1"/>
-        <v>0.16073422217881633</v>
+        <v>6.0866936216829606E-2</v>
       </c>
       <c r="G8" s="27">
         <f t="shared" si="1"/>
-        <v>0.14817580655809279</v>
+        <v>6.1875678291262309E-2</v>
       </c>
       <c r="H8" s="27">
         <f t="shared" si="1"/>
-        <v>0.13867134894908695</v>
+        <v>6.2271241273747162E-2</v>
       </c>
       <c r="I8" s="27">
         <f t="shared" si="1"/>
-        <v>0.12850964292154557</v>
+        <v>6.3998904981821814E-2</v>
       </c>
       <c r="J8" s="27">
         <f t="shared" si="1"/>
-        <v>0.27462190190436375</v>
+        <v>6.045145230088686E-2</v>
       </c>
       <c r="K8" s="27">
         <f t="shared" si="1"/>
-        <v>-2.9037568344467132E-2</v>
+        <v>1.5827239596016111E-2</v>
       </c>
       <c r="L8" s="27">
         <f t="shared" si="1"/>
-        <v>0.10348540129402709</v>
+        <v>6.3408570209181725E-2</v>
       </c>
       <c r="M8" s="27">
         <f t="shared" si="1"/>
-        <v>0.23175002958850416</v>
+        <v>7.0247303312655759E-2</v>
       </c>
       <c r="N8" s="27">
         <f t="shared" si="1"/>
-        <v>7.3808760988415836E-2</v>
+        <v>3.8697249447136699E-2</v>
       </c>
       <c r="O8" s="27">
         <f t="shared" si="1"/>
-        <v>-1.0048032175963775E-2</v>
+        <v>4.134689543089573E-2</v>
       </c>
       <c r="P8" s="27">
         <f t="shared" si="1"/>
-        <v>3.6005640794679401E-3</v>
+        <v>5.0966917265344795E-2</v>
       </c>
       <c r="Q8" s="27">
         <f t="shared" si="1"/>
-        <v>8.5256190197557563E-2</v>
+        <v>6.140334036302094E-2</v>
       </c>
       <c r="R8" s="27">
         <f t="shared" si="1"/>
-        <v>1.9637433278238584E-2</v>
+        <v>6.7426999732116494E-2</v>
       </c>
       <c r="S8" s="27">
         <f t="shared" si="1"/>
-        <v>7.8442957205823532E-2</v>
+        <v>7.0204000391274377E-2</v>
       </c>
       <c r="T8" s="27">
         <f t="shared" si="1"/>
-        <v>0.14303062235420461</v>
+        <v>5.844144326669979E-2</v>
       </c>
       <c r="U8" s="27">
         <f t="shared" si="1"/>
-        <v>1.1539244309781033E-2</v>
+        <v>4.9540403959523874E-2</v>
       </c>
       <c r="V8" s="27">
         <f t="shared" si="1"/>
-        <v>4.8330326817000731E-2</v>
+        <v>3.0629109455202683E-2</v>
       </c>
       <c r="W8" s="27">
         <f t="shared" si="1"/>
-        <v>6.5944605472249701E-2</v>
+        <v>6.594460547224984E-2</v>
       </c>
       <c r="X8" s="27">
         <f t="shared" si="1"/>
-        <v>6.2122906952883986E-2</v>
+        <v>6.212290695288409E-2</v>
       </c>
       <c r="Y8" s="27">
         <f t="shared" si="1"/>
-        <v>5.8619013342068704E-2</v>
+        <v>5.8619013342068524E-2</v>
       </c>
       <c r="Z8" s="27">
         <f t="shared" si="1"/>
-        <v>5.5605501559850015E-2</v>
+        <v>5.5605501559849876E-2</v>
       </c>
       <c r="AA8" s="27">
         <f t="shared" si="1"/>
-        <v>5.3241234373233318E-2</v>
+        <v>5.3241234373233415E-2</v>
       </c>
       <c r="AB8" s="27">
         <f t="shared" si="1"/>
-        <v>5.1388214174024699E-2</v>
+        <v>5.1388214174024602E-2</v>
       </c>
       <c r="AC8" s="27">
         <f t="shared" si="1"/>
-        <v>4.9764156340438744E-2</v>
+        <v>4.9764156340438674E-2</v>
       </c>
       <c r="AD8" s="27">
         <f t="shared" si="1"/>
-        <v>4.8380169773934854E-2</v>
+        <v>4.8380169773934584E-2</v>
       </c>
       <c r="AE8" s="27">
         <f t="shared" si="1"/>
-        <v>4.7138572098261257E-2</v>
+        <v>4.7138572098261194E-2</v>
       </c>
       <c r="AF8" s="27">
         <f t="shared" si="1"/>
-        <v>4.6005094727254746E-2</v>
+        <v>4.6005094727254774E-2</v>
       </c>
       <c r="AG8" s="27">
         <f t="shared" si="1"/>
-        <v>4.4950820874254616E-2</v>
+        <v>4.4950820874254553E-2</v>
       </c>
       <c r="AH8" s="27">
         <f t="shared" si="1"/>
-        <v>4.3959890150311098E-2</v>
+        <v>4.3959890150311091E-2</v>
       </c>
       <c r="AI8" s="27">
         <f t="shared" si="1"/>
-        <v>4.2990708301998977E-2</v>
+        <v>4.2990708301999109E-2</v>
       </c>
       <c r="AJ8" s="27">
         <f t="shared" si="1"/>
-        <v>4.2093369283704954E-2</v>
+        <v>4.2093369283705023E-2</v>
       </c>
       <c r="AK8" s="27">
         <f t="shared" si="1"/>
-        <v>4.1247143527775421E-2</v>
+        <v>4.1247143527775344E-2</v>
       </c>
       <c r="AL8" s="27">
         <f t="shared" si="1"/>
-        <v>4.0430543774688577E-2</v>
+        <v>4.0430543774688618E-2</v>
       </c>
       <c r="AM8" s="27">
         <f t="shared" si="1"/>
-        <v>3.9644857118581539E-2</v>
+        <v>3.9644857118581449E-2</v>
       </c>
       <c r="AN8" s="27">
         <f t="shared" si="1"/>
-        <v>3.8910307583320959E-2</v>
+        <v>3.8910307583321077E-2</v>
       </c>
       <c r="AO8" s="27">
         <f t="shared" si="1"/>
-        <v>3.8219336546355981E-2</v>
+        <v>3.8219336546356078E-2</v>
       </c>
       <c r="AP8" s="27">
         <f t="shared" si="1"/>
-        <v>3.7553755441926739E-2</v>
+        <v>3.7553755441926587E-2</v>
       </c>
       <c r="AQ8" s="27">
         <f t="shared" si="1"/>
-        <v>3.6904753053641624E-2</v>
+        <v>3.6904753053641638E-2</v>
       </c>
       <c r="AR8" s="27">
         <f t="shared" si="1"/>
-        <v>3.6284122990053083E-2</v>
+        <v>3.6284122990053048E-2</v>
       </c>
       <c r="AS8" s="27">
         <f t="shared" si="1"/>
-        <v>3.571678638962246E-2</v>
+        <v>3.5716786389622383E-2</v>
       </c>
       <c r="AT8" s="27">
         <f t="shared" si="1"/>
-        <v>3.5192299324143667E-2</v>
+        <v>3.5192299324143715E-2</v>
       </c>
       <c r="AU8" s="27">
         <f t="shared" si="1"/>
-        <v>3.468824743734613E-2</v>
+        <v>3.4688247437346227E-2</v>
       </c>
       <c r="AV8" s="27">
         <f t="shared" si="1"/>
-        <v>3.4190739725679514E-2</v>
+        <v>3.4190739725679591E-2</v>
       </c>
       <c r="AW8" s="27">
         <f t="shared" si="1"/>
-        <v>3.3697902878220339E-2</v>
+        <v>3.3697902878220193E-2</v>
       </c>
       <c r="AX8" s="27">
         <f t="shared" si="1"/>
-        <v>3.3240153231250513E-2</v>
+        <v>3.3240153231250527E-2</v>
       </c>
       <c r="AY8" s="27">
         <f t="shared" si="1"/>
-        <v>3.2807329309871479E-2</v>
+        <v>3.280732930987159E-2</v>
       </c>
       <c r="AZ8" s="27">
         <f t="shared" si="1"/>
-        <v>3.2385693776429178E-2</v>
+        <v>3.2385693776429143E-2</v>
       </c>
       <c r="BA8" s="27">
         <f t="shared" si="1"/>
-        <v>3.1960619290683119E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+        <v>3.1960619290683133E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
@@ -11361,7 +11362,7 @@
       <c r="AC9" s="26"/>
       <c r="AD9" s="26"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>74</v>
       </c>
@@ -11394,7 +11395,7 @@
       <c r="AC10" s="26"/>
       <c r="AD10" s="26"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A11" s="10">
         <f>SUM('OECD VAL'!C9:AL9)*10^6</f>
         <v>649385143000.00012</v>
@@ -11430,7 +11431,7 @@
       <c r="AC11" s="26"/>
       <c r="AD11" s="26"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A12" s="10">
         <f>A11*About!$A$61</f>
         <v>629047420741.72754</v>
@@ -11466,7 +11467,7 @@
       <c r="AC12" s="26"/>
       <c r="AD12" s="26"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.45">
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
@@ -11495,12 +11496,12 @@
       <c r="AC13" s="26"/>
       <c r="AD13" s="26"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>2015</v>
       </c>
@@ -11610,305 +11611,305 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="11">
         <f>R8</f>
-        <v>1.9637433278238584E-2</v>
+        <v>6.7426999732116494E-2</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" ref="C16:E16" si="2">S8</f>
-        <v>7.8442957205823532E-2</v>
+        <v>7.0204000391274377E-2</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="2"/>
-        <v>0.14303062235420461</v>
+        <v>5.844144326669979E-2</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="2"/>
-        <v>1.1539244309781033E-2</v>
+        <v>4.9540403959523874E-2</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" ref="F16:AK16" si="3">V8</f>
-        <v>4.8330326817000731E-2</v>
+        <v>3.0629109455202683E-2</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="3"/>
-        <v>6.5944605472249701E-2</v>
+        <v>6.594460547224984E-2</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="3"/>
-        <v>6.2122906952883986E-2</v>
+        <v>6.212290695288409E-2</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>5.8619013342068704E-2</v>
+        <v>5.8619013342068524E-2</v>
       </c>
       <c r="J16" s="11">
         <f t="shared" si="3"/>
-        <v>5.5605501559850015E-2</v>
+        <v>5.5605501559849876E-2</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="3"/>
-        <v>5.3241234373233318E-2</v>
+        <v>5.3241234373233415E-2</v>
       </c>
       <c r="L16" s="11">
         <f t="shared" si="3"/>
-        <v>5.1388214174024699E-2</v>
+        <v>5.1388214174024602E-2</v>
       </c>
       <c r="M16" s="11">
         <f t="shared" si="3"/>
-        <v>4.9764156340438744E-2</v>
+        <v>4.9764156340438674E-2</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="3"/>
-        <v>4.8380169773934854E-2</v>
+        <v>4.8380169773934584E-2</v>
       </c>
       <c r="O16" s="11">
         <f t="shared" si="3"/>
-        <v>4.7138572098261257E-2</v>
+        <v>4.7138572098261194E-2</v>
       </c>
       <c r="P16" s="11">
         <f t="shared" si="3"/>
-        <v>4.6005094727254746E-2</v>
+        <v>4.6005094727254774E-2</v>
       </c>
       <c r="Q16" s="11">
         <f t="shared" si="3"/>
-        <v>4.4950820874254616E-2</v>
+        <v>4.4950820874254553E-2</v>
       </c>
       <c r="R16" s="11">
         <f t="shared" si="3"/>
-        <v>4.3959890150311098E-2</v>
+        <v>4.3959890150311091E-2</v>
       </c>
       <c r="S16" s="11">
         <f t="shared" si="3"/>
-        <v>4.2990708301998977E-2</v>
+        <v>4.2990708301999109E-2</v>
       </c>
       <c r="T16" s="11">
         <f t="shared" si="3"/>
-        <v>4.2093369283704954E-2</v>
+        <v>4.2093369283705023E-2</v>
       </c>
       <c r="U16" s="11">
         <f t="shared" si="3"/>
-        <v>4.1247143527775421E-2</v>
+        <v>4.1247143527775344E-2</v>
       </c>
       <c r="V16" s="11">
         <f t="shared" si="3"/>
-        <v>4.0430543774688577E-2</v>
+        <v>4.0430543774688618E-2</v>
       </c>
       <c r="W16" s="11">
         <f t="shared" si="3"/>
-        <v>3.9644857118581539E-2</v>
+        <v>3.9644857118581449E-2</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="3"/>
-        <v>3.8910307583320959E-2</v>
+        <v>3.8910307583321077E-2</v>
       </c>
       <c r="Y16" s="11">
         <f t="shared" si="3"/>
-        <v>3.8219336546355981E-2</v>
+        <v>3.8219336546356078E-2</v>
       </c>
       <c r="Z16" s="11">
         <f t="shared" si="3"/>
-        <v>3.7553755441926739E-2</v>
+        <v>3.7553755441926587E-2</v>
       </c>
       <c r="AA16" s="11">
         <f t="shared" si="3"/>
-        <v>3.6904753053641624E-2</v>
+        <v>3.6904753053641638E-2</v>
       </c>
       <c r="AB16" s="11">
         <f t="shared" si="3"/>
-        <v>3.6284122990053083E-2</v>
+        <v>3.6284122990053048E-2</v>
       </c>
       <c r="AC16" s="11">
         <f t="shared" si="3"/>
-        <v>3.571678638962246E-2</v>
+        <v>3.5716786389622383E-2</v>
       </c>
       <c r="AD16" s="11">
         <f t="shared" si="3"/>
-        <v>3.5192299324143667E-2</v>
+        <v>3.5192299324143715E-2</v>
       </c>
       <c r="AE16" s="11">
         <f t="shared" si="3"/>
-        <v>3.468824743734613E-2</v>
+        <v>3.4688247437346227E-2</v>
       </c>
       <c r="AF16" s="11">
         <f t="shared" si="3"/>
-        <v>3.4190739725679514E-2</v>
+        <v>3.4190739725679591E-2</v>
       </c>
       <c r="AG16" s="11">
         <f t="shared" si="3"/>
-        <v>3.3697902878220339E-2</v>
+        <v>3.3697902878220193E-2</v>
       </c>
       <c r="AH16" s="11">
         <f t="shared" si="3"/>
-        <v>3.3240153231250513E-2</v>
+        <v>3.3240153231250527E-2</v>
       </c>
       <c r="AI16" s="11">
         <f t="shared" si="3"/>
-        <v>3.2807329309871479E-2</v>
+        <v>3.280732930987159E-2</v>
       </c>
       <c r="AJ16" s="11">
         <f t="shared" si="3"/>
-        <v>3.2385693776429178E-2</v>
+        <v>3.2385693776429143E-2</v>
       </c>
       <c r="AK16" s="11">
         <f t="shared" si="3"/>
-        <v>3.1960619290683119E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+        <v>3.1960619290683133E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="13">
         <f>A12*(1+B16)</f>
-        <v>641400297495.39124</v>
+        <v>671462201011.56848</v>
       </c>
       <c r="C17" s="13">
         <f>B17*(1+C16)</f>
-        <v>691713633583.62476</v>
+        <v>718601533634.11047</v>
       </c>
       <c r="D17" s="13">
         <f t="shared" ref="D17:AK17" si="4">C17*(1+D16)</f>
-        <v>790649865085.97888</v>
+        <v>760597644393.35181</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" si="4"/>
-        <v>799773367042.70142</v>
+        <v>798277958947.26086</v>
       </c>
       <c r="F17" s="13">
         <f>E17*(1+F16)</f>
-        <v>838426675251.40833</v>
+        <v>822728501927.53235</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" si="4"/>
-        <v>893716391568.27246</v>
+        <v>876983008397.9187</v>
       </c>
       <c r="H17" s="13">
         <f t="shared" si="4"/>
-        <v>949236651803.93542</v>
+        <v>931463742227.88306</v>
       </c>
       <c r="I17" s="13">
         <f t="shared" si="4"/>
-        <v>1004879967760.811</v>
+        <v>986065227761.19238</v>
       </c>
       <c r="J17" s="13">
         <f t="shared" si="4"/>
-        <v>1060756822375.5968</v>
+        <v>1040895879321.5811</v>
       </c>
       <c r="K17" s="13">
         <f t="shared" si="4"/>
-        <v>1117232824968.7021</v>
+        <v>1096314460790.6742</v>
       </c>
       <c r="L17" s="13">
         <f>K17*(1+L16)</f>
-        <v>1174645424660.4446</v>
+        <v>1152652103103.8655</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="4"/>
-        <v>1233100663217.8279</v>
+        <v>1210012862568.8618</v>
       </c>
       <c r="N17" s="13">
         <f t="shared" si="4"/>
-        <v>1292758282652.658</v>
+        <v>1268553490288.5879</v>
       </c>
       <c r="O17" s="13">
         <f t="shared" si="4"/>
-        <v>1353697062165.1047</v>
+        <v>1328351290451.0574</v>
       </c>
       <c r="P17" s="13">
         <f t="shared" si="4"/>
-        <v>1415974023742.0168</v>
+        <v>1389462217399.3293</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="4"/>
-        <v>1479623218445.8418</v>
+        <v>1451919684645.1912</v>
       </c>
       <c r="R17" s="13">
         <f t="shared" si="4"/>
-        <v>1544667292592.5708</v>
+        <v>1515745914489.2681</v>
       </c>
       <c r="S17" s="13">
         <f t="shared" si="4"/>
-        <v>1611073633592.0564</v>
+        <v>1580908904959.0232</v>
       </c>
       <c r="T17" s="13">
         <f t="shared" si="4"/>
-        <v>1678889150994.0872</v>
+        <v>1647454687299.3613</v>
       </c>
       <c r="U17" s="13">
         <f t="shared" si="4"/>
-        <v>1748138532772.3655</v>
+        <v>1715407487241.9043</v>
       </c>
       <c r="V17" s="13">
         <f t="shared" si="4"/>
-        <v>1818816724245.8384</v>
+        <v>1784762344746.2666</v>
       </c>
       <c r="W17" s="13">
         <f t="shared" si="4"/>
-        <v>1890923453403.4509</v>
+        <v>1855518992894.3567</v>
       </c>
       <c r="X17" s="13">
         <f t="shared" si="4"/>
-        <v>1964499866591.8948</v>
+        <v>1927717807634.5701</v>
       </c>
       <c r="Y17" s="13">
         <f t="shared" si="4"/>
-        <v>2039581748138.4417</v>
+        <v>2001393903290.9595</v>
       </c>
       <c r="Z17" s="13">
         <f t="shared" si="4"/>
-        <v>2116175702311.8501</v>
+        <v>2076553760478.1108</v>
       </c>
       <c r="AA17" s="13">
         <f t="shared" si="4"/>
-        <v>2194272644023.7856</v>
+        <v>2153188464211.1665</v>
       </c>
       <c r="AB17" s="13">
         <f t="shared" si="4"/>
-        <v>2273889902513.2534</v>
+        <v>2231315019267.3677</v>
       </c>
       <c r="AC17" s="13">
         <f t="shared" si="4"/>
-        <v>2355105942434.8384</v>
+        <v>2311010421178.4966</v>
       </c>
       <c r="AD17" s="13">
         <f t="shared" si="4"/>
-        <v>2437987535701.0747</v>
+        <v>2392340191661.8257</v>
       </c>
       <c r="AE17" s="13">
         <f t="shared" si="4"/>
-        <v>2522557050588.6396</v>
+        <v>2475326280184.4995</v>
       </c>
       <c r="AF17" s="13">
         <f t="shared" si="4"/>
-        <v>2608805142148.4937</v>
+        <v>2559959516766.4224</v>
       </c>
       <c r="AG17" s="13">
         <f t="shared" si="4"/>
-        <v>2696716404456.8154</v>
+        <v>2646224783934.5928</v>
       </c>
       <c r="AH17" s="13">
         <f t="shared" si="4"/>
-        <v>2786355670962.187</v>
+        <v>2734185701236.9116</v>
       </c>
       <c r="AI17" s="13">
         <f t="shared" si="4"/>
-        <v>2877768559033.8711</v>
+        <v>2823887031931.7334</v>
       </c>
       <c r="AJ17" s="13">
         <f t="shared" si="4"/>
-        <v>2970967090346.1777</v>
+        <v>2915340572607.1035</v>
       </c>
       <c r="AK17" s="13">
         <f t="shared" si="4"/>
-        <v>3065921038445.8809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+        <v>3008516662750.8813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="B19" s="10"/>
       <c r="AK19" s="10"/>
     </row>
@@ -11920,7 +11921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D02B7A6-B7E4-4B42-ADE9-1C2AC0869798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11928,13 +11929,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" customWidth="1"/>
     <col min="2" max="33" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
@@ -12036,7 +12037,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>19</v>
       </c>
